--- a/js/leetcode/js/leetcode.xlsx
+++ b/js/leetcode/js/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/XiumingXu/Development/Kata/js/leetcode/js/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E6E8E73-3C74-2E45-80A7-5677CD50FDFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E447A77-75D5-7647-90F0-F44674BB7D58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21560" windowHeight="20500" activeTab="4" xr2:uid="{D9979169-2470-B940-A4AE-C3D5CB1A8763}"/>
+    <workbookView xWindow="8800" yWindow="4400" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{D9979169-2470-B940-A4AE-C3D5CB1A8763}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="615">
   <si>
     <t>1249 Minimum Remove to Make Valid Parentheses            </t>
   </si>
@@ -1859,13 +1859,99 @@
   </si>
   <si>
     <t>trim只是头尾</t>
+  </si>
+  <si>
+    <t>之前有误解, 划分为两组值后 要对下面在分类讨论</t>
+  </si>
+  <si>
+    <t>Object map的特殊用法呢</t>
+  </si>
+  <si>
+    <t>dp的状态还是直观一点好</t>
+  </si>
+  <si>
+    <t>不太好享 只要剩余有左括号 就可以在当前位置试着加左括号  顺序性</t>
+  </si>
+  <si>
+    <t>单词要想着是hash, 所以才能快速知道是否在字典里</t>
+  </si>
+  <si>
+    <t>中值算左,   [) 结尾就是) r === l 的) 有极端情况尽量算向左收缩</t>
+  </si>
+  <si>
+    <r>
+      <t>这是循环前</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF262626"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>升序</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>排列的数，左边的数小，右边的数大，而且我们要找的是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF262626"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>最小值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，肯定是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF262626"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>偏向左</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>找，所以左右不对称了。</t>
+    </r>
+  </si>
+  <si>
+    <t>完全理解含义, 不同的二分法之间的转换, 跟 在rotate string里找target 有类似吗但是为什么只想右边???</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2027,8 +2113,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF262626"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2056,8 +2157,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2121,15 +2227,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2151,12 +2273,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2186,9 +2302,23 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="5"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -2841,7 +2971,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="36" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2852,7 +2982,7 @@
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="16"/>
+      <c r="C29" s="37"/>
     </row>
     <row r="30" spans="1:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -2866,16 +2996,16 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="18" t="s">
         <v>215</v>
       </c>
       <c r="E31" s="1" t="s">
@@ -2890,7 +3020,7 @@
       <c r="C32" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="19"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="1" t="s">
         <v>257</v>
       </c>
@@ -2914,7 +3044,7 @@
       <c r="C34" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="20"/>
+      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -2926,7 +3056,7 @@
       <c r="C35" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="20"/>
+      <c r="D35" s="18"/>
     </row>
     <row r="36" spans="1:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
@@ -2938,8 +3068,8 @@
       <c r="C36" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="21"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
     </row>
     <row r="37" spans="1:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
@@ -2960,7 +3090,7 @@
       <c r="C38" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
@@ -2970,19 +3100,19 @@
       <c r="C39" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="20"/>
+      <c r="D39" s="18"/>
     </row>
     <row r="40" spans="1:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="20" t="s">
         <v>262</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D40" s="20"/>
+      <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
@@ -3005,8 +3135,8 @@
       <c r="C42" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="21"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="19"/>
     </row>
     <row r="43" spans="1:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
@@ -3036,7 +3166,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B46" s="2"/>
@@ -3045,7 +3175,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="15" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="2"/>
@@ -4366,22 +4496,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="21" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4389,7 +4519,7 @@
       <c r="B2" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="22">
         <v>0.51300000000000001</v>
       </c>
       <c r="D2" t="s">
@@ -4400,7 +4530,7 @@
       <c r="B3" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="22">
         <v>0.497</v>
       </c>
       <c r="D3" t="s">
@@ -4411,7 +4541,7 @@
       <c r="B4" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>0.438</v>
       </c>
       <c r="D4" t="s">
@@ -4422,7 +4552,7 @@
       <c r="B5" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <v>0.55600000000000005</v>
       </c>
       <c r="D5" t="s">
@@ -4433,7 +4563,7 @@
       <c r="B6" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>0.435</v>
       </c>
       <c r="D6" t="s">
@@ -4444,7 +4574,7 @@
       <c r="B7" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>0.35699999999999998</v>
       </c>
       <c r="D7" t="s">
@@ -4455,7 +4585,7 @@
       <c r="B8" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <v>0.44700000000000001</v>
       </c>
       <c r="D8" t="s">
@@ -4466,7 +4596,7 @@
       <c r="B9" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>0.51700000000000002</v>
       </c>
       <c r="D9" t="s">
@@ -4477,7 +4607,7 @@
       <c r="B10" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>0.58499999999999996</v>
       </c>
       <c r="D10" t="s">
@@ -4488,7 +4618,7 @@
       <c r="B11" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>0.30399999999999999</v>
       </c>
       <c r="D11" t="s">
@@ -4499,7 +4629,7 @@
       <c r="B12" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="22">
         <v>0.53700000000000003</v>
       </c>
       <c r="D12" t="s">
@@ -4510,7 +4640,7 @@
       <c r="B13" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="22">
         <v>0.45700000000000002</v>
       </c>
       <c r="D13" t="s">
@@ -4521,7 +4651,7 @@
       <c r="B14" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <v>0.53900000000000003</v>
       </c>
       <c r="D14" t="s">
@@ -4532,7 +4662,7 @@
       <c r="B15" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="22">
         <v>0.4</v>
       </c>
       <c r="D15" t="s">
@@ -4543,7 +4673,7 @@
       <c r="B16" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="22">
         <v>0.65300000000000002</v>
       </c>
       <c r="D16" t="s">
@@ -4554,7 +4684,7 @@
       <c r="B17" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>0.252</v>
       </c>
       <c r="D17" t="s">
@@ -4565,7 +4695,7 @@
       <c r="B18" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <v>0.65700000000000003</v>
       </c>
       <c r="D18" t="s">
@@ -4576,7 +4706,7 @@
       <c r="B19" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <v>0.76600000000000001</v>
       </c>
       <c r="D19" t="s">
@@ -4587,7 +4717,7 @@
       <c r="B20" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="22">
         <v>0.48799999999999999</v>
       </c>
       <c r="D20" t="s">
@@ -4598,7 +4728,7 @@
       <c r="B21" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="22">
         <v>0.52100000000000002</v>
       </c>
       <c r="D21" t="s">
@@ -4609,7 +4739,7 @@
       <c r="B22" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="22">
         <v>0.66</v>
       </c>
       <c r="D22" t="s">
@@ -4620,7 +4750,7 @@
       <c r="B23" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="22">
         <v>0.27900000000000003</v>
       </c>
       <c r="D23" t="s">
@@ -4631,7 +4761,7 @@
       <c r="B24" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="22">
         <v>0.71199999999999997</v>
       </c>
       <c r="D24" t="s">
@@ -4642,7 +4772,7 @@
       <c r="B25" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <v>0.39200000000000002</v>
       </c>
       <c r="D25" t="s">
@@ -4653,7 +4783,7 @@
       <c r="B26" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="22">
         <v>0.72</v>
       </c>
       <c r="D26" t="s">
@@ -4664,7 +4794,7 @@
       <c r="B27" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="22">
         <v>0.499</v>
       </c>
       <c r="D27" t="s">
@@ -4675,7 +4805,7 @@
       <c r="B28" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="22">
         <v>0.51800000000000002</v>
       </c>
       <c r="D28" t="s">
@@ -4686,7 +4816,7 @@
       <c r="B29" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="22">
         <v>0.33100000000000002</v>
       </c>
       <c r="D29" t="s">
@@ -4697,7 +4827,7 @@
       <c r="B30" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="22">
         <v>0.55500000000000005</v>
       </c>
       <c r="D30" t="s">
@@ -4708,7 +4838,7 @@
       <c r="B31" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="22">
         <v>0.64600000000000002</v>
       </c>
       <c r="D31" t="s">
@@ -4719,7 +4849,7 @@
       <c r="B32" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="22">
         <v>0.63500000000000001</v>
       </c>
       <c r="D32" t="s">
@@ -4730,7 +4860,7 @@
       <c r="B33" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="22">
         <v>0.66100000000000003</v>
       </c>
       <c r="D33" t="s">
@@ -4741,7 +4871,7 @@
       <c r="B34" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="22">
         <v>0.65400000000000003</v>
       </c>
       <c r="D34" t="s">
@@ -4752,7 +4882,7 @@
       <c r="B35" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="22">
         <v>0.46200000000000002</v>
       </c>
       <c r="D35" t="s">
@@ -4763,7 +4893,7 @@
       <c r="B36" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="22">
         <v>0.495</v>
       </c>
       <c r="D36" t="s">
@@ -4774,7 +4904,7 @@
       <c r="B37" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="22">
         <v>0.74</v>
       </c>
       <c r="D37" t="s">
@@ -4785,7 +4915,7 @@
       <c r="B38" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="22">
         <v>0.39400000000000002</v>
       </c>
       <c r="D38" t="s">
@@ -4796,7 +4926,7 @@
       <c r="B39" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="22">
         <v>0.65</v>
       </c>
       <c r="D39" t="s">
@@ -4807,7 +4937,7 @@
       <c r="B40" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="22">
         <v>0.40300000000000002</v>
       </c>
       <c r="D40" t="s">
@@ -4818,7 +4948,7 @@
       <c r="B41" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="22">
         <v>0.77400000000000002</v>
       </c>
       <c r="D41" t="s">
@@ -4829,7 +4959,7 @@
       <c r="B42" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="22">
         <v>0.53</v>
       </c>
       <c r="D42" t="s">
@@ -4840,7 +4970,7 @@
       <c r="B43" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="22">
         <v>0.39</v>
       </c>
       <c r="D43" t="s">
@@ -4851,7 +4981,7 @@
       <c r="B44" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="22">
         <v>0.71199999999999997</v>
       </c>
       <c r="D44" t="s">
@@ -4862,7 +4992,7 @@
       <c r="B45" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="22">
         <v>0.61799999999999999</v>
       </c>
       <c r="D45" t="s">
@@ -4873,7 +5003,7 @@
       <c r="B46" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="22">
         <v>0.496</v>
       </c>
       <c r="D46" t="s">
@@ -4884,7 +5014,7 @@
       <c r="B47" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="22">
         <v>0.53700000000000003</v>
       </c>
       <c r="D47" t="s">
@@ -4895,7 +5025,7 @@
       <c r="B48" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="22">
         <v>0.43</v>
       </c>
       <c r="D48" t="s">
@@ -4906,7 +5036,7 @@
       <c r="B49" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="22">
         <v>0.497</v>
       </c>
       <c r="D49" t="s">
@@ -4917,7 +5047,7 @@
       <c r="B50" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="22">
         <v>0.54700000000000004</v>
       </c>
       <c r="D50" t="s">
@@ -4928,7 +5058,7 @@
       <c r="B51" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="22">
         <v>0.63900000000000001</v>
       </c>
       <c r="D51" t="s">
@@ -4939,7 +5069,7 @@
       <c r="B52" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="22">
         <v>0.52700000000000002</v>
       </c>
       <c r="D52" t="s">
@@ -4950,7 +5080,7 @@
       <c r="B53" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="22">
         <v>0.45900000000000002</v>
       </c>
       <c r="D53" t="s">
@@ -4961,7 +5091,7 @@
       <c r="B54" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="22">
         <v>0.48099999999999998</v>
       </c>
       <c r="D54" t="s">
@@ -4972,7 +5102,7 @@
       <c r="B55" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="22">
         <v>0.36099999999999999</v>
       </c>
       <c r="D55" t="s">
@@ -4983,7 +5113,7 @@
       <c r="B56" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="22">
         <v>0.32600000000000001</v>
       </c>
       <c r="D56" t="s">
@@ -4994,7 +5124,7 @@
       <c r="B57" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="22">
         <v>0.21099999999999999</v>
       </c>
       <c r="D57" t="s">
@@ -5005,7 +5135,7 @@
       <c r="B58" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="22">
         <v>0.57099999999999995</v>
       </c>
       <c r="D58" t="s">
@@ -5016,7 +5146,7 @@
       <c r="B59" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="22">
         <v>0.42</v>
       </c>
       <c r="D59" t="s">
@@ -5027,7 +5157,7 @@
       <c r="B60" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C60" s="24">
+      <c r="C60" s="22">
         <v>0.53300000000000003</v>
       </c>
       <c r="D60" t="s">
@@ -5038,7 +5168,7 @@
       <c r="B61" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="22">
         <v>0.68700000000000006</v>
       </c>
       <c r="D61" t="s">
@@ -5049,7 +5179,7 @@
       <c r="B62" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="22">
         <v>0.376</v>
       </c>
       <c r="D62" t="s">
@@ -5060,7 +5190,7 @@
       <c r="B63" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C63" s="24">
+      <c r="C63" s="22">
         <v>0.54600000000000004</v>
       </c>
       <c r="D63" t="s">
@@ -5071,7 +5201,7 @@
       <c r="B64" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C64" s="24">
+      <c r="C64" s="22">
         <v>0.45100000000000001</v>
       </c>
       <c r="D64" t="s">
@@ -5082,7 +5212,7 @@
       <c r="B65" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C65" s="24">
+      <c r="C65" s="22">
         <v>0.43099999999999999</v>
       </c>
       <c r="D65" t="s">
@@ -5093,7 +5223,7 @@
       <c r="B66" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C66" s="24">
+      <c r="C66" s="22">
         <v>0.53100000000000003</v>
       </c>
       <c r="D66" t="s">
@@ -5104,7 +5234,7 @@
       <c r="B67" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C67" s="24">
+      <c r="C67" s="22">
         <v>0.48</v>
       </c>
       <c r="D67" t="s">
@@ -5115,7 +5245,7 @@
       <c r="B68" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C68" s="24">
+      <c r="C68" s="22">
         <v>0.52400000000000002</v>
       </c>
       <c r="D68" t="s">
@@ -5126,7 +5256,7 @@
       <c r="B69" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C69" s="24">
+      <c r="C69" s="22">
         <v>0.40300000000000002</v>
       </c>
       <c r="D69" t="s">
@@ -5137,7 +5267,7 @@
       <c r="B70" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C70" s="24">
+      <c r="C70" s="22">
         <v>0.49099999999999999</v>
       </c>
       <c r="D70" t="s">
@@ -5148,7 +5278,7 @@
       <c r="B71" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C71" s="24">
+      <c r="C71" s="22">
         <v>0.39500000000000002</v>
       </c>
       <c r="D71" t="s">
@@ -5159,7 +5289,7 @@
       <c r="B72" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C72" s="24">
+      <c r="C72" s="22">
         <v>0.40100000000000002</v>
       </c>
       <c r="D72" t="s">
@@ -5170,7 +5300,7 @@
       <c r="B73" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C73" s="24">
+      <c r="C73" s="22">
         <v>0.39200000000000002</v>
       </c>
       <c r="D73" t="s">
@@ -5181,7 +5311,7 @@
       <c r="B74" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C74" s="24">
+      <c r="C74" s="22">
         <v>0.39300000000000002</v>
       </c>
       <c r="D74" t="s">
@@ -5192,7 +5322,7 @@
       <c r="B75" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="22">
         <v>0.59099999999999997</v>
       </c>
       <c r="D75" t="s">
@@ -5203,7 +5333,7 @@
       <c r="B76" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C76" s="24">
+      <c r="C76" s="22">
         <v>0.57199999999999995</v>
       </c>
       <c r="D76" t="s">
@@ -5214,7 +5344,7 @@
       <c r="B77" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C77" s="24">
+      <c r="C77" s="22">
         <v>0.52300000000000002</v>
       </c>
       <c r="D77" t="s">
@@ -5225,7 +5355,7 @@
       <c r="B78" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C78" s="24">
+      <c r="C78" s="22">
         <v>0.443</v>
       </c>
       <c r="D78" t="s">
@@ -5236,7 +5366,7 @@
       <c r="B79" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="22">
         <v>0.46899999999999997</v>
       </c>
       <c r="D79" t="s">
@@ -5247,7 +5377,7 @@
       <c r="B80" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C80" s="24">
+      <c r="C80" s="22">
         <v>0.58599999999999997</v>
       </c>
       <c r="D80" t="s">
@@ -5258,7 +5388,7 @@
       <c r="B81" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="22">
         <v>0.50700000000000001</v>
       </c>
       <c r="D81" t="s">
@@ -5269,7 +5399,7 @@
       <c r="B82" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C82" s="24">
+      <c r="C82" s="22">
         <v>0.65200000000000002</v>
       </c>
       <c r="D82" t="s">
@@ -5280,7 +5410,7 @@
       <c r="B83" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C83" s="24">
+      <c r="C83" s="22">
         <v>0.61599999999999999</v>
       </c>
       <c r="D83" t="s">
@@ -5291,7 +5421,7 @@
       <c r="B84" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C84" s="24">
+      <c r="C84" s="22">
         <v>0.49199999999999999</v>
       </c>
       <c r="D84" t="s">
@@ -5302,7 +5432,7 @@
       <c r="B85" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="22">
         <v>0.623</v>
       </c>
       <c r="D85" t="s">
@@ -5313,7 +5443,7 @@
       <c r="B86" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C86" s="24">
+      <c r="C86" s="22">
         <v>0.39600000000000002</v>
       </c>
       <c r="D86" t="s">
@@ -5324,7 +5454,7 @@
       <c r="B87" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C87" s="24">
+      <c r="C87" s="22">
         <v>0.36299999999999999</v>
       </c>
       <c r="D87" t="s">
@@ -5335,7 +5465,7 @@
       <c r="B88" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C88" s="24">
+      <c r="C88" s="22">
         <v>0.34300000000000003</v>
       </c>
       <c r="D88" t="s">
@@ -5346,7 +5476,7 @@
       <c r="B89" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C89" s="24">
+      <c r="C89" s="22">
         <v>0.41499999999999998</v>
       </c>
       <c r="D89" t="s">
@@ -5357,7 +5487,7 @@
       <c r="B90" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C90" s="24">
+      <c r="C90" s="22">
         <v>0.63800000000000001</v>
       </c>
       <c r="D90" t="s">
@@ -5368,7 +5498,7 @@
       <c r="B91" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C91" s="24">
+      <c r="C91" s="22">
         <v>0.55900000000000005</v>
       </c>
       <c r="D91" t="s">
@@ -5379,7 +5509,7 @@
       <c r="B92" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C92" s="24">
+      <c r="C92" s="22">
         <v>0.46700000000000003</v>
       </c>
       <c r="D92" t="s">
@@ -5390,7 +5520,7 @@
       <c r="B93" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C93" s="24">
+      <c r="C93" s="22">
         <v>0.77700000000000002</v>
       </c>
       <c r="D93" t="s">
@@ -5401,7 +5531,7 @@
       <c r="B94" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C94" s="24">
+      <c r="C94" s="22">
         <v>0.53500000000000003</v>
       </c>
       <c r="D94" t="s">
@@ -5412,7 +5542,7 @@
       <c r="B95" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C95" s="24">
+      <c r="C95" s="22">
         <v>0.6</v>
       </c>
       <c r="D95" t="s">
@@ -5423,7 +5553,7 @@
       <c r="B96" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C96" s="24">
+      <c r="C96" s="22">
         <v>0.38400000000000001</v>
       </c>
       <c r="D96" t="s">
@@ -5434,7 +5564,7 @@
       <c r="B97" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C97" s="24">
+      <c r="C97" s="22">
         <v>0.51100000000000001</v>
       </c>
       <c r="D97" t="s">
@@ -5445,7 +5575,7 @@
       <c r="B98" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C98" s="24">
+      <c r="C98" s="22">
         <v>0.58699999999999997</v>
       </c>
       <c r="D98" t="s">
@@ -5456,7 +5586,7 @@
       <c r="B99" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C99" s="24">
+      <c r="C99" s="22">
         <v>0.745</v>
       </c>
       <c r="D99" t="s">
@@ -5467,7 +5597,7 @@
       <c r="B100" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C100" s="24">
+      <c r="C100" s="22">
         <v>0.40699999999999997</v>
       </c>
       <c r="D100" t="s">
@@ -5478,7 +5608,7 @@
       <c r="B101" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C101" s="24">
+      <c r="C101" s="22">
         <v>0.70599999999999996</v>
       </c>
       <c r="D101" t="s">
@@ -5489,7 +5619,7 @@
       <c r="B102" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C102" s="24">
+      <c r="C102" s="22">
         <v>0.50600000000000001</v>
       </c>
       <c r="D102" t="s">
@@ -5500,7 +5630,7 @@
       <c r="B103" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C103" s="24">
+      <c r="C103" s="22">
         <v>0.55900000000000005</v>
       </c>
       <c r="D103" t="s">
@@ -5511,7 +5641,7 @@
       <c r="B104" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C104" s="24">
+      <c r="C104" s="22">
         <v>0.748</v>
       </c>
       <c r="D104" t="s">
@@ -5522,7 +5652,7 @@
       <c r="B105" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C105" s="24">
+      <c r="C105" s="22">
         <v>0.51800000000000002</v>
       </c>
       <c r="D105" t="s">
@@ -5533,7 +5663,7 @@
       <c r="B106" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C106" s="24">
+      <c r="C106" s="22">
         <v>0.72799999999999998</v>
       </c>
       <c r="D106" t="s">
@@ -5544,7 +5674,7 @@
       <c r="B107" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C107" s="24">
+      <c r="C107" s="22">
         <v>0.73699999999999999</v>
       </c>
       <c r="D107" t="s">
@@ -5555,7 +5685,7 @@
       <c r="B108" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C108" s="24">
+      <c r="C108" s="22">
         <v>0.41599999999999998</v>
       </c>
       <c r="D108" t="s">
@@ -5566,7 +5696,7 @@
       <c r="B109" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C109" s="24">
+      <c r="C109" s="22">
         <v>0.627</v>
       </c>
       <c r="D109" t="s">
@@ -5577,7 +5707,7 @@
       <c r="B110" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C110" s="24">
+      <c r="C110" s="22">
         <v>0.64600000000000002</v>
       </c>
       <c r="D110" t="s">
@@ -5588,7 +5718,7 @@
       <c r="B111" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C111" s="24">
+      <c r="C111" s="22">
         <v>0.45800000000000002</v>
       </c>
       <c r="D111" t="s">
@@ -5599,7 +5729,7 @@
       <c r="B112" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C112" s="24">
+      <c r="C112" s="22">
         <v>0.63800000000000001</v>
       </c>
       <c r="D112" t="s">
@@ -5610,7 +5740,7 @@
       <c r="B113" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C113" s="24">
+      <c r="C113" s="22">
         <v>0.61699999999999999</v>
       </c>
       <c r="D113" t="s">
@@ -5621,7 +5751,7 @@
       <c r="B114" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C114" s="24">
+      <c r="C114" s="22">
         <v>0.66800000000000004</v>
       </c>
       <c r="D114" t="s">
@@ -5632,7 +5762,7 @@
       <c r="B115" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C115" s="24">
+      <c r="C115" s="22">
         <v>0.371</v>
       </c>
       <c r="D115" t="s">
@@ -5643,7 +5773,7 @@
       <c r="B116" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C116" s="24">
+      <c r="C116" s="22">
         <v>0.78500000000000003</v>
       </c>
       <c r="D116" t="s">
@@ -5654,7 +5784,7 @@
       <c r="B117" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C117" s="24">
+      <c r="C117" s="22">
         <v>0.41199999999999998</v>
       </c>
       <c r="D117" t="s">
@@ -5665,7 +5795,7 @@
       <c r="B118" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C118" s="24">
+      <c r="C118" s="22">
         <v>0.48099999999999998</v>
       </c>
       <c r="D118" t="s">
@@ -5676,7 +5806,7 @@
       <c r="B119" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C119" s="24">
+      <c r="C119" s="22">
         <v>0.44700000000000001</v>
       </c>
       <c r="D119" t="s">
@@ -5687,7 +5817,7 @@
       <c r="B120" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C120" s="24">
+      <c r="C120" s="22">
         <v>0.55200000000000005</v>
       </c>
       <c r="D120" t="s">
@@ -5698,7 +5828,7 @@
       <c r="B121" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C121" s="24">
+      <c r="C121" s="22">
         <v>0.44500000000000001</v>
       </c>
       <c r="D121" t="s">
@@ -5709,7 +5839,7 @@
       <c r="B122" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C122" s="24">
+      <c r="C122" s="22">
         <v>0.53600000000000003</v>
       </c>
       <c r="D122" t="s">
@@ -5720,7 +5850,7 @@
       <c r="B123" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C123" s="24">
+      <c r="C123" s="22">
         <v>0.41699999999999998</v>
       </c>
       <c r="D123" t="s">
@@ -5731,7 +5861,7 @@
       <c r="B124" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C124" s="24">
+      <c r="C124" s="22">
         <v>0.59399999999999997</v>
       </c>
       <c r="D124" t="s">
@@ -5742,7 +5872,7 @@
       <c r="B125" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C125" s="24">
+      <c r="C125" s="22">
         <v>0.41799999999999998</v>
       </c>
       <c r="D125" t="s">
@@ -5753,7 +5883,7 @@
       <c r="B126" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C126" s="24">
+      <c r="C126" s="22">
         <v>0.45900000000000002</v>
       </c>
       <c r="D126" t="s">
@@ -5764,7 +5894,7 @@
       <c r="B127" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C127" s="24">
+      <c r="C127" s="22">
         <v>0.58399999999999996</v>
       </c>
       <c r="D127" t="s">
@@ -5775,7 +5905,7 @@
       <c r="B128" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C128" s="24">
+      <c r="C128" s="22">
         <v>0.45900000000000002</v>
       </c>
       <c r="D128" t="s">
@@ -5786,7 +5916,7 @@
       <c r="B129" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C129" s="24">
+      <c r="C129" s="22">
         <v>0.66200000000000003</v>
       </c>
       <c r="D129" t="s">
@@ -5797,7 +5927,7 @@
       <c r="B130" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C130" s="24">
+      <c r="C130" s="22">
         <v>0.55000000000000004</v>
       </c>
       <c r="D130" t="s">
@@ -5808,7 +5938,7 @@
       <c r="B131" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C131" s="24">
+      <c r="C131" s="22">
         <v>0.625</v>
       </c>
       <c r="D131" t="s">
@@ -5819,7 +5949,7 @@
       <c r="B132" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C132" s="24">
+      <c r="C132" s="22">
         <v>0.38900000000000001</v>
       </c>
       <c r="D132" t="s">
@@ -5830,7 +5960,7 @@
       <c r="B133" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C133" s="24">
+      <c r="C133" s="22">
         <v>0.443</v>
       </c>
       <c r="D133" t="s">
@@ -5841,7 +5971,7 @@
       <c r="B134" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C134" s="24">
+      <c r="C134" s="22">
         <v>0.49199999999999999</v>
       </c>
       <c r="D134" t="s">
@@ -5852,7 +5982,7 @@
       <c r="B135" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C135" s="24">
+      <c r="C135" s="22">
         <v>0.45500000000000002</v>
       </c>
       <c r="D135" t="s">
@@ -5863,7 +5993,7 @@
       <c r="B136" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C136" s="24">
+      <c r="C136" s="22">
         <v>0.34799999999999998</v>
       </c>
       <c r="D136" t="s">
@@ -5874,7 +6004,7 @@
       <c r="B137" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C137" s="24">
+      <c r="C137" s="22">
         <v>0.51900000000000002</v>
       </c>
       <c r="D137" t="s">
@@ -5885,7 +6015,7 @@
       <c r="B138" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C138" s="24">
+      <c r="C138" s="22">
         <v>0.61299999999999999</v>
       </c>
       <c r="D138" t="s">
@@ -5896,7 +6026,7 @@
       <c r="B139" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C139" s="24">
+      <c r="C139" s="22">
         <v>0.65900000000000003</v>
       </c>
       <c r="D139" t="s">
@@ -5907,7 +6037,7 @@
       <c r="B140" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C140" s="24">
+      <c r="C140" s="22">
         <v>0.46700000000000003</v>
       </c>
       <c r="D140" t="s">
@@ -5918,7 +6048,7 @@
       <c r="B141" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C141" s="24">
+      <c r="C141" s="22">
         <v>0.54100000000000004</v>
       </c>
       <c r="D141" t="s">
@@ -5929,7 +6059,7 @@
       <c r="B142" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C142" s="24">
+      <c r="C142" s="22">
         <v>0.23499999999999999</v>
       </c>
       <c r="D142" t="s">
@@ -5940,7 +6070,7 @@
       <c r="B143" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C143" s="24">
+      <c r="C143" s="22">
         <v>0.50800000000000001</v>
       </c>
       <c r="D143" t="s">
@@ -5951,7 +6081,7 @@
       <c r="B144" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C144" s="24">
+      <c r="C144" s="22">
         <v>0.38700000000000001</v>
       </c>
       <c r="D144" t="s">
@@ -5962,7 +6092,7 @@
       <c r="B145" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C145" s="24">
+      <c r="C145" s="22">
         <v>0.61</v>
       </c>
       <c r="D145" t="s">
@@ -5973,7 +6103,7 @@
       <c r="B146" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C146" s="24">
+      <c r="C146" s="22">
         <v>0.66300000000000003</v>
       </c>
       <c r="D146" t="s">
@@ -5984,7 +6114,7 @@
       <c r="B147" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C147" s="24">
+      <c r="C147" s="22">
         <v>0.53800000000000003</v>
       </c>
       <c r="D147" t="s">
@@ -5995,7 +6125,7 @@
       <c r="B148" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C148" s="24">
+      <c r="C148" s="22">
         <v>0.72599999999999998</v>
       </c>
       <c r="D148" t="s">
@@ -6006,7 +6136,7 @@
       <c r="B149" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C149" s="24">
+      <c r="C149" s="22">
         <v>0.748</v>
       </c>
       <c r="D149" t="s">
@@ -6017,7 +6147,7 @@
       <c r="B150" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C150" s="24">
+      <c r="C150" s="22">
         <v>0.41899999999999998</v>
       </c>
       <c r="D150" t="s">
@@ -6028,7 +6158,7 @@
       <c r="B151" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C151" s="24">
+      <c r="C151" s="22">
         <v>0.48399999999999999</v>
       </c>
       <c r="D151" t="s">
@@ -6039,7 +6169,7 @@
       <c r="B152" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C152" s="24">
+      <c r="C152" s="22">
         <v>0.439</v>
       </c>
       <c r="D152" t="s">
@@ -6050,7 +6180,7 @@
       <c r="B153" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C153" s="24">
+      <c r="C153" s="22">
         <v>0.65600000000000003</v>
       </c>
       <c r="D153" t="s">
@@ -6061,7 +6191,7 @@
       <c r="B154" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C154" s="24">
+      <c r="C154" s="22">
         <v>0.73399999999999999</v>
       </c>
       <c r="D154" t="s">
@@ -6072,7 +6202,7 @@
       <c r="B155" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C155" s="24">
+      <c r="C155" s="22">
         <v>0.58499999999999996</v>
       </c>
       <c r="D155" t="s">
@@ -6083,7 +6213,7 @@
       <c r="B156" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C156" s="24">
+      <c r="C156" s="22">
         <v>0.83299999999999996</v>
       </c>
       <c r="D156" t="s">
@@ -6094,7 +6224,7 @@
       <c r="B157" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C157" s="24">
+      <c r="C157" s="22">
         <v>0.57199999999999995</v>
       </c>
       <c r="D157" t="s">
@@ -6105,7 +6235,7 @@
       <c r="B158" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C158" s="24">
+      <c r="C158" s="22">
         <v>0.441</v>
       </c>
       <c r="D158" t="s">
@@ -6116,7 +6246,7 @@
       <c r="B159" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C159" s="24">
+      <c r="C159" s="22">
         <v>0.33</v>
       </c>
       <c r="D159" t="s">
@@ -6127,7 +6257,7 @@
       <c r="B160" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C160" s="24">
+      <c r="C160" s="22">
         <v>0.66200000000000003</v>
       </c>
       <c r="D160" t="s">
@@ -6138,7 +6268,7 @@
       <c r="B161" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C161" s="24">
+      <c r="C161" s="22">
         <v>0.38200000000000001</v>
       </c>
       <c r="D161" t="s">
@@ -6149,7 +6279,7 @@
       <c r="B162" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C162" s="24">
+      <c r="C162" s="22">
         <v>0.50600000000000001</v>
       </c>
       <c r="D162" t="s">
@@ -6160,7 +6290,7 @@
       <c r="B163" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C163" s="24">
+      <c r="C163" s="22">
         <v>0.45600000000000002</v>
       </c>
       <c r="D163" t="s">
@@ -6171,7 +6301,7 @@
       <c r="B164" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C164" s="24">
+      <c r="C164" s="22">
         <v>0.38800000000000001</v>
       </c>
       <c r="D164" t="s">
@@ -6182,7 +6312,7 @@
       <c r="B165" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C165" s="24">
+      <c r="C165" s="22">
         <v>0.41799999999999998</v>
       </c>
       <c r="D165" t="s">
@@ -6193,7 +6323,7 @@
       <c r="B166" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C166" s="24">
+      <c r="C166" s="22">
         <v>0.36799999999999999</v>
       </c>
       <c r="D166" t="s">
@@ -6204,7 +6334,7 @@
       <c r="B167" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C167" s="24">
+      <c r="C167" s="22">
         <v>0.26800000000000002</v>
       </c>
       <c r="D167" t="s">
@@ -6215,7 +6345,7 @@
       <c r="B168" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C168" s="24">
+      <c r="C168" s="22">
         <v>0.53</v>
       </c>
       <c r="D168" t="s">
@@ -6226,7 +6356,7 @@
       <c r="B169" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C169" s="24">
+      <c r="C169" s="22">
         <v>0.63400000000000001</v>
       </c>
       <c r="D169" t="s">
@@ -6237,7 +6367,7 @@
       <c r="B170" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C170" s="24">
+      <c r="C170" s="22">
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
@@ -6248,7 +6378,7 @@
       <c r="B171" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C171" s="24">
+      <c r="C171" s="22">
         <v>0.74299999999999999</v>
       </c>
       <c r="D171" t="s">
@@ -6259,7 +6389,7 @@
       <c r="B172" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C172" s="24">
+      <c r="C172" s="22">
         <v>0.373</v>
       </c>
       <c r="D172" t="s">
@@ -6270,7 +6400,7 @@
       <c r="B173" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="C173" s="24">
+      <c r="C173" s="22">
         <v>0.54400000000000004</v>
       </c>
       <c r="D173" t="s">
@@ -6281,7 +6411,7 @@
       <c r="B174" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C174" s="24">
+      <c r="C174" s="22">
         <v>0.58599999999999997</v>
       </c>
       <c r="D174" t="s">
@@ -6292,7 +6422,7 @@
       <c r="B175" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="C175" s="24">
+      <c r="C175" s="22">
         <v>0.56999999999999995</v>
       </c>
       <c r="D175" t="s">
@@ -6303,7 +6433,7 @@
       <c r="B176" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C176" s="24">
+      <c r="C176" s="22">
         <v>0.47499999999999998</v>
       </c>
       <c r="D176" t="s">
@@ -6314,7 +6444,7 @@
       <c r="B177" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C177" s="24">
+      <c r="C177" s="22">
         <v>0.59599999999999997</v>
       </c>
       <c r="D177" t="s">
@@ -6325,7 +6455,7 @@
       <c r="B178" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C178" s="24">
+      <c r="C178" s="22">
         <v>0.28299999999999997</v>
       </c>
       <c r="D178" t="s">
@@ -6336,7 +6466,7 @@
       <c r="B179" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C179" s="24">
+      <c r="C179" s="22">
         <v>0.47199999999999998</v>
       </c>
       <c r="D179" t="s">
@@ -6347,7 +6477,7 @@
       <c r="B180" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C180" s="24">
+      <c r="C180" s="22">
         <v>0.54900000000000004</v>
       </c>
       <c r="D180" t="s">
@@ -6358,7 +6488,7 @@
       <c r="B181" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C181" s="24">
+      <c r="C181" s="22">
         <v>0.439</v>
       </c>
       <c r="D181" t="s">
@@ -6369,7 +6499,7 @@
       <c r="B182" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C182" s="24">
+      <c r="C182" s="22">
         <v>0.628</v>
       </c>
       <c r="D182" t="s">
@@ -6380,7 +6510,7 @@
       <c r="B183" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C183" s="24">
+      <c r="C183" s="22">
         <v>0.66400000000000003</v>
       </c>
       <c r="D183" t="s">
@@ -6391,7 +6521,7 @@
       <c r="B184" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C184" s="24">
+      <c r="C184" s="22">
         <v>0.58699999999999997</v>
       </c>
       <c r="D184" t="s">
@@ -6402,7 +6532,7 @@
       <c r="B185" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C185" s="24">
+      <c r="C185" s="22">
         <v>0.47499999999999998</v>
       </c>
       <c r="D185" t="s">
@@ -6413,7 +6543,7 @@
       <c r="B186" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C186" s="24">
+      <c r="C186" s="22">
         <v>0.42199999999999999</v>
       </c>
       <c r="D186" t="s">
@@ -6424,7 +6554,7 @@
       <c r="B187" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C187" s="24">
+      <c r="C187" s="22">
         <v>0.68</v>
       </c>
       <c r="D187" t="s">
@@ -6435,7 +6565,7 @@
       <c r="B188" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C188" s="24">
+      <c r="C188" s="22">
         <v>0.51100000000000001</v>
       </c>
       <c r="D188" t="s">
@@ -6446,7 +6576,7 @@
       <c r="B189" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C189" s="24">
+      <c r="C189" s="22">
         <v>0.39</v>
       </c>
       <c r="D189" t="s">
@@ -6457,7 +6587,7 @@
       <c r="B190" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C190" s="24">
+      <c r="C190" s="22">
         <v>0.64700000000000002</v>
       </c>
       <c r="D190" t="s">
@@ -6468,7 +6598,7 @@
       <c r="B191" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C191" s="24">
+      <c r="C191" s="22">
         <v>0.57799999999999996</v>
       </c>
       <c r="D191" t="s">
@@ -6479,7 +6609,7 @@
       <c r="B192" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C192" s="24">
+      <c r="C192" s="22">
         <v>0.47799999999999998</v>
       </c>
       <c r="D192" t="s">
@@ -6490,7 +6620,7 @@
       <c r="B193" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C193" s="24">
+      <c r="C193" s="22">
         <v>0.49299999999999999</v>
       </c>
       <c r="D193" t="s">
@@ -6501,7 +6631,7 @@
       <c r="B194" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C194" s="24">
+      <c r="C194" s="22">
         <v>0.64600000000000002</v>
       </c>
       <c r="D194" t="s">
@@ -6512,7 +6642,7 @@
       <c r="B195" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C195" s="24">
+      <c r="C195" s="22">
         <v>0.55100000000000005</v>
       </c>
       <c r="D195" t="s">
@@ -6523,7 +6653,7 @@
       <c r="B196" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="C196" s="24">
+      <c r="C196" s="22">
         <v>0.37</v>
       </c>
       <c r="D196" t="s">
@@ -6534,7 +6664,7 @@
       <c r="B197" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C197" s="24">
+      <c r="C197" s="22">
         <v>0.52300000000000002</v>
       </c>
       <c r="D197" t="s">
@@ -6545,7 +6675,7 @@
       <c r="B198" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C198" s="24">
+      <c r="C198" s="22">
         <v>0.622</v>
       </c>
       <c r="D198" t="s">
@@ -6556,7 +6686,7 @@
       <c r="B199" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="C199" s="24">
+      <c r="C199" s="22">
         <v>0.32400000000000001</v>
       </c>
       <c r="D199" t="s">
@@ -6567,7 +6697,7 @@
       <c r="B200" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C200" s="24">
+      <c r="C200" s="22">
         <v>0.34899999999999998</v>
       </c>
       <c r="D200" t="s">
@@ -6578,7 +6708,7 @@
       <c r="B201" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C201" s="24">
+      <c r="C201" s="22">
         <v>0.42099999999999999</v>
       </c>
       <c r="D201" t="s">
@@ -6589,7 +6719,7 @@
       <c r="B202" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C202" s="24">
+      <c r="C202" s="22">
         <v>0.30399999999999999</v>
       </c>
       <c r="D202" t="s">
@@ -6600,7 +6730,7 @@
       <c r="B203" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C203" s="24">
+      <c r="C203" s="22">
         <v>0.56399999999999995</v>
       </c>
       <c r="D203" t="s">
@@ -6611,7 +6741,7 @@
       <c r="B204" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C204" s="24">
+      <c r="C204" s="22">
         <v>0.77700000000000002</v>
       </c>
       <c r="D204" t="s">
@@ -6622,7 +6752,7 @@
       <c r="B205" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C205" s="24">
+      <c r="C205" s="22">
         <v>0.35099999999999998</v>
       </c>
       <c r="D205" t="s">
@@ -6633,7 +6763,7 @@
       <c r="B206" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C206" s="24">
+      <c r="C206" s="22">
         <v>0.59499999999999997</v>
       </c>
       <c r="D206" t="s">
@@ -6644,7 +6774,7 @@
       <c r="B207" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C207" s="24">
+      <c r="C207" s="22">
         <v>0.47099999999999997</v>
       </c>
       <c r="D207" t="s">
@@ -6655,7 +6785,7 @@
       <c r="B208" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C208" s="24">
+      <c r="C208" s="22">
         <v>0.57099999999999995</v>
       </c>
       <c r="D208" t="s">
@@ -6666,7 +6796,7 @@
       <c r="B209" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C209" s="24">
+      <c r="C209" s="22">
         <v>0.59199999999999997</v>
       </c>
       <c r="D209" t="s">
@@ -6677,7 +6807,7 @@
       <c r="B210" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C210" s="24">
+      <c r="C210" s="22">
         <v>0.54200000000000004</v>
       </c>
       <c r="D210" t="s">
@@ -6688,7 +6818,7 @@
       <c r="B211" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C211" s="24">
+      <c r="C211" s="22">
         <v>0.47199999999999998</v>
       </c>
       <c r="D211" t="s">
@@ -6699,7 +6829,7 @@
       <c r="B212" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C212" s="24">
+      <c r="C212" s="22">
         <v>0.45500000000000002</v>
       </c>
       <c r="D212" t="s">
@@ -6710,7 +6840,7 @@
       <c r="B213" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="C213" s="24">
+      <c r="C213" s="22">
         <v>0.58299999999999996</v>
       </c>
       <c r="D213" t="s">
@@ -6721,7 +6851,7 @@
       <c r="B214" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C214" s="24">
+      <c r="C214" s="22">
         <v>0.71599999999999997</v>
       </c>
       <c r="D214" t="s">
@@ -6732,7 +6862,7 @@
       <c r="B215" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C215" s="24">
+      <c r="C215" s="22">
         <v>0.64700000000000002</v>
       </c>
       <c r="D215" t="s">
@@ -6743,7 +6873,7 @@
       <c r="B216" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C216" s="24">
+      <c r="C216" s="22">
         <v>0.45</v>
       </c>
       <c r="D216" t="s">
@@ -6754,7 +6884,7 @@
       <c r="B217" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C217" s="24">
+      <c r="C217" s="22">
         <v>0.45600000000000002</v>
       </c>
       <c r="D217" t="s">
@@ -6765,7 +6895,7 @@
       <c r="B218" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C218" s="24">
+      <c r="C218" s="22">
         <v>0.34</v>
       </c>
       <c r="D218" t="s">
@@ -6776,7 +6906,7 @@
       <c r="B219" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C219" s="24">
+      <c r="C219" s="22">
         <v>0.78600000000000003</v>
       </c>
       <c r="D219" t="s">
@@ -6787,7 +6917,7 @@
       <c r="B220" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C220" s="24">
+      <c r="C220" s="22">
         <v>0.63100000000000001</v>
       </c>
       <c r="D220" t="s">
@@ -6798,7 +6928,7 @@
       <c r="B221" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C221" s="24">
+      <c r="C221" s="22">
         <v>0.34899999999999998</v>
       </c>
       <c r="D221" t="s">
@@ -6809,7 +6939,7 @@
       <c r="B222" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C222" s="24">
+      <c r="C222" s="22">
         <v>0.30599999999999999</v>
       </c>
       <c r="D222" t="s">
@@ -6820,7 +6950,7 @@
       <c r="B223" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C223" s="24">
+      <c r="C223" s="22">
         <v>0.68799999999999994</v>
       </c>
       <c r="D223" t="s">
@@ -6831,7 +6961,7 @@
       <c r="B224" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C224" s="24">
+      <c r="C224" s="22">
         <v>0.59099999999999997</v>
       </c>
       <c r="D224" t="s">
@@ -6842,7 +6972,7 @@
       <c r="B225" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C225" s="24">
+      <c r="C225" s="22">
         <v>0.46899999999999997</v>
       </c>
       <c r="D225" t="s">
@@ -6853,7 +6983,7 @@
       <c r="B226" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C226" s="24">
+      <c r="C226" s="22">
         <v>0.51100000000000001</v>
       </c>
       <c r="D226" t="s">
@@ -6864,7 +6994,7 @@
       <c r="B227" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C227" s="24">
+      <c r="C227" s="22">
         <v>0.69199999999999995</v>
       </c>
       <c r="D227" t="s">
@@ -6875,7 +7005,7 @@
       <c r="B228" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C228" s="24">
+      <c r="C228" s="22">
         <v>0.70899999999999996</v>
       </c>
       <c r="D228" t="s">
@@ -6886,7 +7016,7 @@
       <c r="B229" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="C229" s="24">
+      <c r="C229" s="22">
         <v>0.67900000000000005</v>
       </c>
       <c r="D229" t="s">
@@ -6897,7 +7027,7 @@
       <c r="B230" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C230" s="24">
+      <c r="C230" s="22">
         <v>0.746</v>
       </c>
       <c r="D230" t="s">
@@ -6908,7 +7038,7 @@
       <c r="B231" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="C231" s="24">
+      <c r="C231" s="22">
         <v>0.505</v>
       </c>
       <c r="D231" t="s">
@@ -6919,7 +7049,7 @@
       <c r="B232" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C232" s="24">
+      <c r="C232" s="22">
         <v>0.57099999999999995</v>
       </c>
       <c r="D232" t="s">
@@ -6930,7 +7060,7 @@
       <c r="B233" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C233" s="24">
+      <c r="C233" s="22">
         <v>0.46500000000000002</v>
       </c>
       <c r="D233" t="s">
@@ -6941,7 +7071,7 @@
       <c r="B234" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C234" s="24">
+      <c r="C234" s="22">
         <v>0.35299999999999998</v>
       </c>
       <c r="D234" t="s">
@@ -6952,7 +7082,7 @@
       <c r="B235" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C235" s="24">
+      <c r="C235" s="22">
         <v>0.70799999999999996</v>
       </c>
       <c r="D235" t="s">
@@ -6963,7 +7093,7 @@
       <c r="B236" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="C236" s="24">
+      <c r="C236" s="22">
         <v>0.46700000000000003</v>
       </c>
       <c r="D236" t="s">
@@ -6974,7 +7104,7 @@
       <c r="B237" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C237" s="24">
+      <c r="C237" s="22">
         <v>0.69499999999999995</v>
       </c>
       <c r="D237" t="s">
@@ -6985,7 +7115,7 @@
       <c r="B238" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C238" s="24">
+      <c r="C238" s="22">
         <v>0.36599999999999999</v>
       </c>
       <c r="D238" t="s">
@@ -6996,7 +7126,7 @@
       <c r="B239" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C239" s="24">
+      <c r="C239" s="22">
         <v>0.45100000000000001</v>
       </c>
       <c r="D239" t="s">
@@ -7007,7 +7137,7 @@
       <c r="B240" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C240" s="24">
+      <c r="C240" s="22">
         <v>0.65900000000000003</v>
       </c>
       <c r="D240" t="s">
@@ -7018,7 +7148,7 @@
       <c r="B241" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C241" s="24">
+      <c r="C241" s="22">
         <v>0.83699999999999997</v>
       </c>
       <c r="D241" t="s">
@@ -7029,7 +7159,7 @@
       <c r="B242" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C242" s="24">
+      <c r="C242" s="22">
         <v>0.52800000000000002</v>
       </c>
       <c r="D242" t="s">
@@ -7040,7 +7170,7 @@
       <c r="B243" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C243" s="24">
+      <c r="C243" s="22">
         <v>0.63400000000000001</v>
       </c>
       <c r="D243" t="s">
@@ -7051,7 +7181,7 @@
       <c r="B244" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C244" s="24">
+      <c r="C244" s="22">
         <v>0.29399999999999998</v>
       </c>
       <c r="D244" t="s">
@@ -7062,7 +7192,7 @@
       <c r="B245" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C245" s="24">
+      <c r="C245" s="22">
         <v>0.53</v>
       </c>
       <c r="D245" t="s">
@@ -7073,7 +7203,7 @@
       <c r="B246" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="C246" s="24">
+      <c r="C246" s="22">
         <v>0.39700000000000002</v>
       </c>
       <c r="D246" t="s">
@@ -7084,7 +7214,7 @@
       <c r="B247" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C247" s="24">
+      <c r="C247" s="22">
         <v>0.48799999999999999</v>
       </c>
       <c r="D247" t="s">
@@ -7095,7 +7225,7 @@
       <c r="B248" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C248" s="24">
+      <c r="C248" s="22">
         <v>0.69299999999999995</v>
       </c>
       <c r="D248" t="s">
@@ -7106,7 +7236,7 @@
       <c r="B249" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="C249" s="24">
+      <c r="C249" s="22">
         <v>0.44900000000000001</v>
       </c>
       <c r="D249" t="s">
@@ -7117,7 +7247,7 @@
       <c r="B250" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C250" s="24">
+      <c r="C250" s="22">
         <v>0.45</v>
       </c>
       <c r="D250" t="s">
@@ -7128,7 +7258,7 @@
       <c r="B251" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="C251" s="24">
+      <c r="C251" s="22">
         <v>0.79600000000000004</v>
       </c>
       <c r="D251" t="s">
@@ -7139,7 +7269,7 @@
       <c r="B252" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C252" s="24">
+      <c r="C252" s="22">
         <v>0.5</v>
       </c>
       <c r="D252" t="s">
@@ -7150,7 +7280,7 @@
       <c r="B253" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="C253" s="24">
+      <c r="C253" s="22">
         <v>0.45500000000000002</v>
       </c>
       <c r="D253" t="s">
@@ -7161,7 +7291,7 @@
       <c r="B254" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C254" s="24">
+      <c r="C254" s="22">
         <v>0.45600000000000002</v>
       </c>
       <c r="D254" t="s">
@@ -7172,7 +7302,7 @@
       <c r="B255" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C255" s="24">
+      <c r="C255" s="22">
         <v>0.67600000000000005</v>
       </c>
       <c r="D255" t="s">
@@ -7183,7 +7313,7 @@
       <c r="B256" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="C256" s="24">
+      <c r="C256" s="22">
         <v>0.51400000000000001</v>
       </c>
       <c r="D256" t="s">
@@ -7194,7 +7324,7 @@
       <c r="B257" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="C257" s="24">
+      <c r="C257" s="22">
         <v>0.70599999999999996</v>
       </c>
       <c r="D257" t="s">
@@ -7205,7 +7335,7 @@
       <c r="B258" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C258" s="24">
+      <c r="C258" s="22">
         <v>0.41199999999999998</v>
       </c>
       <c r="D258" t="s">
@@ -7216,7 +7346,7 @@
       <c r="B259" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="C259" s="24">
+      <c r="C259" s="22">
         <v>0.41699999999999998</v>
       </c>
       <c r="D259" t="s">
@@ -7227,7 +7357,7 @@
       <c r="B260" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C260" s="24">
+      <c r="C260" s="22">
         <v>0.42099999999999999</v>
       </c>
       <c r="D260" t="s">
@@ -7238,7 +7368,7 @@
       <c r="B261" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C261" s="24">
+      <c r="C261" s="22">
         <v>0.57599999999999996</v>
       </c>
       <c r="D261" t="s">
@@ -7249,7 +7379,7 @@
       <c r="B262" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C262" s="24">
+      <c r="C262" s="22">
         <v>0.5</v>
       </c>
       <c r="D262" t="s">
@@ -7260,7 +7390,7 @@
       <c r="B263" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C263" s="24">
+      <c r="C263" s="22">
         <v>0.73499999999999999</v>
       </c>
       <c r="D263" t="s">
@@ -7271,7 +7401,7 @@
       <c r="B264" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C264" s="24">
+      <c r="C264" s="22">
         <v>0.49099999999999999</v>
       </c>
       <c r="D264" t="s">
@@ -7282,7 +7412,7 @@
       <c r="B265" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="C265" s="24">
+      <c r="C265" s="22">
         <v>0.4</v>
       </c>
       <c r="D265" t="s">
@@ -7293,7 +7423,7 @@
       <c r="B266" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C266" s="24">
+      <c r="C266" s="22">
         <v>0.6</v>
       </c>
       <c r="D266" t="s">
@@ -7304,7 +7434,7 @@
       <c r="B267" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="C267" s="24">
+      <c r="C267" s="22">
         <v>0.69499999999999995</v>
       </c>
       <c r="D267" t="s">
@@ -7315,7 +7445,7 @@
       <c r="B268" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C268" s="24">
+      <c r="C268" s="22">
         <v>0.58099999999999996</v>
       </c>
       <c r="D268" t="s">
@@ -7326,7 +7456,7 @@
       <c r="B269" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="C269" s="24">
+      <c r="C269" s="22">
         <v>0.33800000000000002</v>
       </c>
       <c r="D269" t="s">
@@ -7337,7 +7467,7 @@
       <c r="B270" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C270" s="24">
+      <c r="C270" s="22">
         <v>0.61399999999999999</v>
       </c>
       <c r="D270" t="s">
@@ -7348,7 +7478,7 @@
       <c r="B271" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="C271" s="24">
+      <c r="C271" s="22">
         <v>0.49099999999999999</v>
       </c>
       <c r="D271" t="s">
@@ -7359,7 +7489,7 @@
       <c r="B272" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C272" s="24">
+      <c r="C272" s="22">
         <v>0.58199999999999996</v>
       </c>
       <c r="D272" t="s">
@@ -7370,7 +7500,7 @@
       <c r="B273" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="C273" s="24">
+      <c r="C273" s="22">
         <v>0.67</v>
       </c>
       <c r="D273" t="s">
@@ -7381,7 +7511,7 @@
       <c r="B274" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="C274" s="24">
+      <c r="C274" s="22">
         <v>0.59299999999999997</v>
       </c>
       <c r="D274" t="s">
@@ -7392,7 +7522,7 @@
       <c r="B275" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C275" s="24">
+      <c r="C275" s="22">
         <v>0.58599999999999997</v>
       </c>
       <c r="D275" t="s">
@@ -7403,7 +7533,7 @@
       <c r="B276" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="C276" s="24">
+      <c r="C276" s="22">
         <v>0.82</v>
       </c>
       <c r="D276" t="s">
@@ -7414,7 +7544,7 @@
       <c r="B277" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="C277" s="24">
+      <c r="C277" s="22">
         <v>0.77900000000000003</v>
       </c>
       <c r="D277" t="s">
@@ -7425,7 +7555,7 @@
       <c r="B278" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C278" s="24">
+      <c r="C278" s="22">
         <v>0.436</v>
       </c>
       <c r="D278" t="s">
@@ -7436,7 +7566,7 @@
       <c r="B279" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="C279" s="24">
+      <c r="C279" s="22">
         <v>0.42399999999999999</v>
       </c>
       <c r="D279" t="s">
@@ -7447,7 +7577,7 @@
       <c r="B280" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C280" s="24">
+      <c r="C280" s="22">
         <v>0.22500000000000001</v>
       </c>
       <c r="D280" t="s">
@@ -7458,7 +7588,7 @@
       <c r="B281" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C281" s="24">
+      <c r="C281" s="22">
         <v>0.67900000000000005</v>
       </c>
       <c r="D281" t="s">
@@ -7469,7 +7599,7 @@
       <c r="B282" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C282" s="24">
+      <c r="C282" s="22">
         <v>0.372</v>
       </c>
       <c r="D282" t="s">
@@ -7480,7 +7610,7 @@
       <c r="B283" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="C283" s="24">
+      <c r="C283" s="22">
         <v>0.193</v>
       </c>
       <c r="D283" t="s">
@@ -7491,7 +7621,7 @@
       <c r="B284" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C284" s="24">
+      <c r="C284" s="22">
         <v>0.28199999999999997</v>
       </c>
       <c r="D284" t="s">
@@ -7502,7 +7632,7 @@
       <c r="B285" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="C285" s="24">
+      <c r="C285" s="22">
         <v>0.64300000000000002</v>
       </c>
       <c r="D285" t="s">
@@ -7513,7 +7643,7 @@
       <c r="B286" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C286" s="24">
+      <c r="C286" s="22">
         <v>0.46600000000000003</v>
       </c>
       <c r="D286" t="s">
@@ -7524,7 +7654,7 @@
       <c r="B287" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="C287" s="24">
+      <c r="C287" s="22">
         <v>0.63200000000000001</v>
       </c>
       <c r="D287" t="s">
@@ -7535,7 +7665,7 @@
       <c r="B288" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="C288" s="24">
+      <c r="C288" s="22">
         <v>0.56000000000000005</v>
       </c>
       <c r="D288" t="s">
@@ -7546,7 +7676,7 @@
       <c r="B289" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="C289" s="24">
+      <c r="C289" s="22">
         <v>0.39800000000000002</v>
       </c>
       <c r="D289" t="s">
@@ -7557,7 +7687,7 @@
       <c r="B290" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C290" s="24">
+      <c r="C290" s="22">
         <v>0.81100000000000005</v>
       </c>
       <c r="D290" t="s">
@@ -7568,7 +7698,7 @@
       <c r="B291" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="C291" s="24">
+      <c r="C291" s="22">
         <v>0.49299999999999999</v>
       </c>
       <c r="D291" t="s">
@@ -7579,7 +7709,7 @@
       <c r="B292" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C292" s="24">
+      <c r="C292" s="22">
         <v>0.65700000000000003</v>
       </c>
       <c r="D292" t="s">
@@ -7590,7 +7720,7 @@
       <c r="B293" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C293" s="24">
+      <c r="C293" s="22">
         <v>0.84899999999999998</v>
       </c>
       <c r="D293" t="s">
@@ -7601,7 +7731,7 @@
       <c r="B294" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C294" s="24">
+      <c r="C294" s="22">
         <v>0.74299999999999999</v>
       </c>
       <c r="D294" t="s">
@@ -7612,7 +7742,7 @@
       <c r="B295" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="C295" s="24">
+      <c r="C295" s="22">
         <v>0.42499999999999999</v>
       </c>
       <c r="D295" t="s">
@@ -7623,7 +7753,7 @@
       <c r="B296" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="C296" s="24">
+      <c r="C296" s="22">
         <v>0.82899999999999996</v>
       </c>
       <c r="D296" t="s">
@@ -7634,7 +7764,7 @@
       <c r="B297" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="C297" s="24">
+      <c r="C297" s="22">
         <v>0.35099999999999998</v>
       </c>
       <c r="D297" t="s">
@@ -7645,7 +7775,7 @@
       <c r="B298" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C298" s="24">
+      <c r="C298" s="22">
         <v>0.64600000000000002</v>
       </c>
       <c r="D298" t="s">
@@ -7656,7 +7786,7 @@
       <c r="B299" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C299" s="24">
+      <c r="C299" s="22">
         <v>0.68799999999999994</v>
       </c>
       <c r="D299" t="s">
@@ -7667,7 +7797,7 @@
       <c r="B300" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="C300" s="24">
+      <c r="C300" s="22">
         <v>0.754</v>
       </c>
       <c r="D300" t="s">
@@ -7678,7 +7808,7 @@
       <c r="B301" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="C301" s="24">
+      <c r="C301" s="22">
         <v>0.41199999999999998</v>
       </c>
       <c r="D301" t="s">
@@ -7689,7 +7819,7 @@
       <c r="B302" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="C302" s="24">
+      <c r="C302" s="22">
         <v>0.44400000000000001</v>
       </c>
       <c r="D302" t="s">
@@ -7700,7 +7830,7 @@
       <c r="B303" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="C303" s="24">
+      <c r="C303" s="22">
         <v>0.58399999999999996</v>
       </c>
       <c r="D303" t="s">
@@ -7711,7 +7841,7 @@
       <c r="B304" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="C304" s="24">
+      <c r="C304" s="22">
         <v>0.61099999999999999</v>
       </c>
       <c r="D304" t="s">
@@ -7722,7 +7852,7 @@
       <c r="B305" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="C305" s="24">
+      <c r="C305" s="22">
         <v>0.54800000000000004</v>
       </c>
       <c r="D305" t="s">
@@ -7733,7 +7863,7 @@
       <c r="B306" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C306" s="24">
+      <c r="C306" s="22">
         <v>0.64400000000000002</v>
       </c>
       <c r="D306" t="s">
@@ -7744,7 +7874,7 @@
       <c r="B307" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="C307" s="24">
+      <c r="C307" s="22">
         <v>0.47199999999999998</v>
       </c>
       <c r="D307" t="s">
@@ -7755,7 +7885,7 @@
       <c r="B308" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C308" s="24">
+      <c r="C308" s="22">
         <v>0.33400000000000002</v>
       </c>
       <c r="D308" t="s">
@@ -7766,7 +7896,7 @@
       <c r="B309" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="C309" s="24">
+      <c r="C309" s="22">
         <v>0.36099999999999999</v>
       </c>
       <c r="D309" t="s">
@@ -7777,7 +7907,7 @@
       <c r="B310" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C310" s="24">
+      <c r="C310" s="22">
         <v>0.45400000000000001</v>
       </c>
       <c r="D310" t="s">
@@ -7788,7 +7918,7 @@
       <c r="B311" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="C311" s="24">
+      <c r="C311" s="22">
         <v>0.65600000000000003</v>
       </c>
       <c r="D311" t="s">
@@ -7799,7 +7929,7 @@
       <c r="B312" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="C312" s="24">
+      <c r="C312" s="22">
         <v>0.43099999999999999</v>
       </c>
       <c r="D312" t="s">
@@ -7810,7 +7940,7 @@
       <c r="B313" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="C313" s="24">
+      <c r="C313" s="22">
         <v>0.67200000000000004</v>
       </c>
       <c r="D313" t="s">
@@ -7821,7 +7951,7 @@
       <c r="B314" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C314" s="24">
+      <c r="C314" s="22">
         <v>0.63700000000000001</v>
       </c>
       <c r="D314" t="s">
@@ -7832,7 +7962,7 @@
       <c r="B315" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="C315" s="24">
+      <c r="C315" s="22">
         <v>0.68500000000000005</v>
       </c>
       <c r="D315" t="s">
@@ -7843,7 +7973,7 @@
       <c r="B316" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C316" s="24">
+      <c r="C316" s="22">
         <v>0.40200000000000002</v>
       </c>
       <c r="D316" t="s">
@@ -7851,18 +7981,18 @@
       </c>
     </row>
     <row r="317" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A317" s="25"/>
+      <c r="A317" s="23"/>
       <c r="B317" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="C317" s="26">
+      <c r="C317" s="24">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D317" s="25" t="s">
+      <c r="D317" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="E317" s="25"/>
-      <c r="F317" s="25"/>
+      <c r="E317" s="23"/>
+      <c r="F317" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8191,31 +8321,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD386AB-BC84-7443-A7E1-450D0CF9B325}">
   <dimension ref="A1:G317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="5" max="5" width="66" customWidth="1"/>
     <col min="6" max="6" width="24.83203125" customWidth="1"/>
+    <col min="7" max="7" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="21" t="s">
         <v>270</v>
       </c>
     </row>
@@ -8223,10 +8354,10 @@
       <c r="B2" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="22">
         <v>0.51300000000000001</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8234,10 +8365,10 @@
       <c r="B3" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="22">
         <v>0.438</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8245,13 +8376,13 @@
       <c r="B4" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="22">
         <v>0.55600000000000005</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="E4" s="21"/>
+      <c r="D4" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="19"/>
       <c r="G4" t="s">
         <v>588</v>
       </c>
@@ -8260,10 +8391,10 @@
       <c r="B5" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="22">
         <v>0.35699999999999998</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>217</v>
       </c>
       <c r="E5" t="s">
@@ -8277,112 +8408,137 @@
       <c r="B6" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="22">
         <v>0.44700000000000001</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>217</v>
       </c>
       <c r="E6" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <v>0.51700000000000002</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D7" s="17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <v>0.30399999999999999</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>0.4</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>217</v>
+      <c r="D9" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="22">
         <v>0.65300000000000002</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>217</v>
+      <c r="D10" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="22">
         <v>0.252</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>217</v>
+      <c r="D11" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="22">
         <v>0.76600000000000001</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>217</v>
+      <c r="D12" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="22">
         <v>0.48799999999999999</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <v>0.52100000000000002</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>217</v>
+      <c r="D14" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>614</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>612</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="22">
         <v>0.66</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8390,10 +8546,10 @@
       <c r="B16" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="22">
         <v>0.39200000000000002</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8401,10 +8557,10 @@
       <c r="B17" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="22">
         <v>0.72</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8412,10 +8568,10 @@
       <c r="B18" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="22">
         <v>0.499</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8423,10 +8579,10 @@
       <c r="B19" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="22">
         <v>0.33100000000000002</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8434,10 +8590,10 @@
       <c r="B20" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="22">
         <v>0.64600000000000002</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8445,10 +8601,10 @@
       <c r="B21" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="22">
         <v>0.66100000000000003</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8456,10 +8612,10 @@
       <c r="B22" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="22">
         <v>0.46200000000000002</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8467,10 +8623,10 @@
       <c r="B23" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="22">
         <v>0.39400000000000002</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8478,10 +8634,10 @@
       <c r="B24" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="22">
         <v>0.77400000000000002</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8489,10 +8645,10 @@
       <c r="B25" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="22">
         <v>0.71199999999999997</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8500,10 +8656,10 @@
       <c r="B26" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C26" s="24">
+      <c r="C26" s="22">
         <v>0.61799999999999999</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8511,10 +8667,10 @@
       <c r="B27" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="22">
         <v>0.496</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8522,10 +8678,10 @@
       <c r="B28" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C28" s="24">
+      <c r="C28" s="22">
         <v>0.53700000000000003</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8533,16 +8689,16 @@
       <c r="B29" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="22">
         <v>0.54700000000000004</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="17" t="s">
         <v>217</v>
       </c>
       <c r="E29" t="s">
         <v>590</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="25" t="s">
         <v>591</v>
       </c>
     </row>
@@ -8550,10 +8706,10 @@
       <c r="B30" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C30" s="24">
+      <c r="C30" s="22">
         <v>0.63900000000000001</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8561,10 +8717,10 @@
       <c r="B31" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="22">
         <v>0.52700000000000002</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8572,10 +8728,10 @@
       <c r="B32" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C32" s="22">
         <v>0.36099999999999999</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8583,10 +8739,10 @@
       <c r="B33" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="22">
         <v>0.32600000000000001</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8594,10 +8750,10 @@
       <c r="B34" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="22">
         <v>0.21099999999999999</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8605,10 +8761,10 @@
       <c r="B35" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="22">
         <v>0.42</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8616,10 +8772,10 @@
       <c r="B36" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="22">
         <v>0.68700000000000006</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8627,10 +8783,10 @@
       <c r="B37" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="22">
         <v>0.376</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8638,10 +8794,10 @@
       <c r="B38" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C38" s="24">
+      <c r="C38" s="22">
         <v>0.54600000000000004</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8649,10 +8805,10 @@
       <c r="B39" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="22">
         <v>0.43099999999999999</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8660,10 +8816,10 @@
       <c r="B40" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C40" s="22">
         <v>0.52400000000000002</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8671,10 +8827,10 @@
       <c r="B41" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="22">
         <v>0.40300000000000002</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8682,10 +8838,10 @@
       <c r="B42" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C42" s="24">
+      <c r="C42" s="22">
         <v>0.59099999999999997</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8693,10 +8849,10 @@
       <c r="B43" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="22">
         <v>0.52300000000000002</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8704,10 +8860,10 @@
       <c r="B44" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C44" s="24">
+      <c r="C44" s="22">
         <v>0.46899999999999997</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8715,10 +8871,10 @@
       <c r="B45" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="22">
         <v>0.58599999999999997</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8726,10 +8882,10 @@
       <c r="B46" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="C46" s="24">
+      <c r="C46" s="22">
         <v>0.50700000000000001</v>
       </c>
-      <c r="D46" s="19" t="s">
+      <c r="D46" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8737,10 +8893,10 @@
       <c r="B47" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="22">
         <v>0.49199999999999999</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8748,10 +8904,10 @@
       <c r="B48" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C48" s="24">
+      <c r="C48" s="22">
         <v>0.36299999999999999</v>
       </c>
-      <c r="D48" s="19" t="s">
+      <c r="D48" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8759,10 +8915,10 @@
       <c r="B49" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="22">
         <v>0.41499999999999998</v>
       </c>
-      <c r="D49" s="19" t="s">
+      <c r="D49" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8770,10 +8926,10 @@
       <c r="B50" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C50" s="24">
+      <c r="C50" s="22">
         <v>0.63800000000000001</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8781,10 +8937,10 @@
       <c r="B51" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="22">
         <v>0.55900000000000005</v>
       </c>
-      <c r="D51" s="19" t="s">
+      <c r="D51" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8792,10 +8948,10 @@
       <c r="B52" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C52" s="24">
+      <c r="C52" s="22">
         <v>0.46700000000000003</v>
       </c>
-      <c r="D52" s="19" t="s">
+      <c r="D52" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8803,10 +8959,10 @@
       <c r="B53" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="22">
         <v>0.53500000000000003</v>
       </c>
-      <c r="D53" s="19" t="s">
+      <c r="D53" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8814,10 +8970,10 @@
       <c r="B54" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="C54" s="24">
+      <c r="C54" s="22">
         <v>0.6</v>
       </c>
-      <c r="D54" s="19" t="s">
+      <c r="D54" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8825,10 +8981,10 @@
       <c r="B55" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="22">
         <v>0.38400000000000001</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8836,10 +8992,10 @@
       <c r="B56" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C56" s="22">
         <v>0.745</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8847,10 +9003,10 @@
       <c r="B57" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="22">
         <v>0.40699999999999997</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8858,10 +9014,10 @@
       <c r="B58" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C58" s="24">
+      <c r="C58" s="22">
         <v>0.748</v>
       </c>
-      <c r="D58" s="19" t="s">
+      <c r="D58" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8869,10 +9025,10 @@
       <c r="B59" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="22">
         <v>0.72799999999999998</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8880,10 +9036,10 @@
       <c r="B60" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C60" s="24">
+      <c r="C60" s="22">
         <v>0.627</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8891,10 +9047,10 @@
       <c r="B61" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="22">
         <v>0.64600000000000002</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8902,10 +9058,10 @@
       <c r="B62" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C62" s="24">
+      <c r="C62" s="22">
         <v>0.45800000000000002</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8913,10 +9069,10 @@
       <c r="B63" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="C63" s="24">
+      <c r="C63" s="22">
         <v>0.61699999999999999</v>
       </c>
-      <c r="D63" s="19" t="s">
+      <c r="D63" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8924,10 +9080,10 @@
       <c r="B64" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C64" s="24">
+      <c r="C64" s="22">
         <v>0.371</v>
       </c>
-      <c r="D64" s="19" t="s">
+      <c r="D64" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8935,10 +9091,10 @@
       <c r="B65" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C65" s="24">
+      <c r="C65" s="22">
         <v>0.78500000000000003</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8946,10 +9102,10 @@
       <c r="B66" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C66" s="24">
+      <c r="C66" s="22">
         <v>0.41199999999999998</v>
       </c>
-      <c r="D66" s="19" t="s">
+      <c r="D66" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8957,10 +9113,10 @@
       <c r="B67" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="C67" s="24">
+      <c r="C67" s="22">
         <v>0.44700000000000001</v>
       </c>
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8968,10 +9124,10 @@
       <c r="B68" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C68" s="24">
+      <c r="C68" s="22">
         <v>0.55200000000000005</v>
       </c>
-      <c r="D68" s="19" t="s">
+      <c r="D68" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8979,10 +9135,10 @@
       <c r="B69" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C69" s="24">
+      <c r="C69" s="22">
         <v>0.44500000000000001</v>
       </c>
-      <c r="D69" s="19" t="s">
+      <c r="D69" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -8990,10 +9146,10 @@
       <c r="B70" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C70" s="24">
+      <c r="C70" s="22">
         <v>0.41699999999999998</v>
       </c>
-      <c r="D70" s="19" t="s">
+      <c r="D70" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9001,10 +9157,10 @@
       <c r="B71" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C71" s="24">
+      <c r="C71" s="22">
         <v>0.59399999999999997</v>
       </c>
-      <c r="D71" s="19" t="s">
+      <c r="D71" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9012,10 +9168,10 @@
       <c r="B72" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C72" s="24">
+      <c r="C72" s="22">
         <v>0.45900000000000002</v>
       </c>
-      <c r="D72" s="19" t="s">
+      <c r="D72" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9023,10 +9179,10 @@
       <c r="B73" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C73" s="24">
+      <c r="C73" s="22">
         <v>0.49199999999999999</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9034,10 +9190,10 @@
       <c r="B74" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C74" s="24">
+      <c r="C74" s="22">
         <v>0.45500000000000002</v>
       </c>
-      <c r="D74" s="19" t="s">
+      <c r="D74" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9045,10 +9201,10 @@
       <c r="B75" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="22">
         <v>0.51900000000000002</v>
       </c>
-      <c r="D75" s="19" t="s">
+      <c r="D75" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9056,10 +9212,10 @@
       <c r="B76" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C76" s="24">
+      <c r="C76" s="22">
         <v>0.61299999999999999</v>
       </c>
-      <c r="D76" s="19" t="s">
+      <c r="D76" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9067,10 +9223,10 @@
       <c r="B77" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C77" s="24">
+      <c r="C77" s="22">
         <v>0.54100000000000004</v>
       </c>
-      <c r="D77" s="19" t="s">
+      <c r="D77" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9078,10 +9234,10 @@
       <c r="B78" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="C78" s="24">
+      <c r="C78" s="22">
         <v>0.50800000000000001</v>
       </c>
-      <c r="D78" s="19" t="s">
+      <c r="D78" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9089,10 +9245,10 @@
       <c r="B79" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C79" s="24">
+      <c r="C79" s="22">
         <v>0.72599999999999998</v>
       </c>
-      <c r="D79" s="19" t="s">
+      <c r="D79" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9100,10 +9256,10 @@
       <c r="B80" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="C80" s="24">
+      <c r="C80" s="22">
         <v>0.748</v>
       </c>
-      <c r="D80" s="19" t="s">
+      <c r="D80" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9111,10 +9267,10 @@
       <c r="B81" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="22">
         <v>0.48399999999999999</v>
       </c>
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9122,10 +9278,10 @@
       <c r="B82" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C82" s="24">
+      <c r="C82" s="22">
         <v>0.439</v>
       </c>
-      <c r="D82" s="19" t="s">
+      <c r="D82" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9133,10 +9289,10 @@
       <c r="B83" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C83" s="24">
+      <c r="C83" s="22">
         <v>0.65600000000000003</v>
       </c>
-      <c r="D83" s="19" t="s">
+      <c r="D83" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9144,10 +9300,10 @@
       <c r="B84" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="C84" s="24">
+      <c r="C84" s="22">
         <v>0.58499999999999996</v>
       </c>
-      <c r="D84" s="19" t="s">
+      <c r="D84" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9155,10 +9311,10 @@
       <c r="B85" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="22">
         <v>0.83299999999999996</v>
       </c>
-      <c r="D85" s="19" t="s">
+      <c r="D85" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9166,10 +9322,10 @@
       <c r="B86" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C86" s="24">
+      <c r="C86" s="22">
         <v>0.57199999999999995</v>
       </c>
-      <c r="D86" s="19" t="s">
+      <c r="D86" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9177,10 +9333,10 @@
       <c r="B87" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C87" s="24">
+      <c r="C87" s="22">
         <v>0.441</v>
       </c>
-      <c r="D87" s="19" t="s">
+      <c r="D87" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9188,10 +9344,10 @@
       <c r="B88" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C88" s="24">
+      <c r="C88" s="22">
         <v>0.33</v>
       </c>
-      <c r="D88" s="19" t="s">
+      <c r="D88" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9199,10 +9355,10 @@
       <c r="B89" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C89" s="24">
+      <c r="C89" s="22">
         <v>0.66200000000000003</v>
       </c>
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9210,10 +9366,10 @@
       <c r="B90" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C90" s="24">
+      <c r="C90" s="22">
         <v>0.50600000000000001</v>
       </c>
-      <c r="D90" s="19" t="s">
+      <c r="D90" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9221,10 +9377,10 @@
       <c r="B91" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="C91" s="24">
+      <c r="C91" s="22">
         <v>0.38800000000000001</v>
       </c>
-      <c r="D91" s="19" t="s">
+      <c r="D91" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9232,10 +9388,10 @@
       <c r="B92" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C92" s="24">
+      <c r="C92" s="22">
         <v>0.53</v>
       </c>
-      <c r="D92" s="19" t="s">
+      <c r="D92" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9243,10 +9399,10 @@
       <c r="B93" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C93" s="24">
+      <c r="C93" s="22">
         <v>0.373</v>
       </c>
-      <c r="D93" s="19" t="s">
+      <c r="D93" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9254,10 +9410,10 @@
       <c r="B94" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="C94" s="24">
+      <c r="C94" s="22">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D94" s="19" t="s">
+      <c r="D94" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9265,10 +9421,10 @@
       <c r="B95" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C95" s="24">
+      <c r="C95" s="22">
         <v>0.59599999999999997</v>
       </c>
-      <c r="D95" s="19" t="s">
+      <c r="D95" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9276,10 +9432,10 @@
       <c r="B96" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C96" s="24">
+      <c r="C96" s="22">
         <v>0.28299999999999997</v>
       </c>
-      <c r="D96" s="19" t="s">
+      <c r="D96" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9287,10 +9443,10 @@
       <c r="B97" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C97" s="24">
+      <c r="C97" s="22">
         <v>0.439</v>
       </c>
-      <c r="D97" s="19" t="s">
+      <c r="D97" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9298,10 +9454,10 @@
       <c r="B98" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C98" s="24">
+      <c r="C98" s="22">
         <v>0.628</v>
       </c>
-      <c r="D98" s="19" t="s">
+      <c r="D98" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9309,10 +9465,10 @@
       <c r="B99" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C99" s="24">
+      <c r="C99" s="22">
         <v>0.58699999999999997</v>
       </c>
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9320,10 +9476,10 @@
       <c r="B100" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C100" s="24">
+      <c r="C100" s="22">
         <v>0.42199999999999999</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9331,10 +9487,10 @@
       <c r="B101" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C101" s="24">
+      <c r="C101" s="22">
         <v>0.68</v>
       </c>
-      <c r="D101" s="19" t="s">
+      <c r="D101" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9342,10 +9498,10 @@
       <c r="B102" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C102" s="24">
+      <c r="C102" s="22">
         <v>0.51100000000000001</v>
       </c>
-      <c r="D102" s="19" t="s">
+      <c r="D102" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9353,10 +9509,10 @@
       <c r="B103" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C103" s="24">
+      <c r="C103" s="22">
         <v>0.64700000000000002</v>
       </c>
-      <c r="D103" s="19" t="s">
+      <c r="D103" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9364,10 +9520,10 @@
       <c r="B104" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C104" s="24">
+      <c r="C104" s="22">
         <v>0.47799999999999998</v>
       </c>
-      <c r="D104" s="19" t="s">
+      <c r="D104" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9375,10 +9531,10 @@
       <c r="B105" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C105" s="24">
+      <c r="C105" s="22">
         <v>0.49299999999999999</v>
       </c>
-      <c r="D105" s="19" t="s">
+      <c r="D105" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9386,10 +9542,10 @@
       <c r="B106" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C106" s="24">
+      <c r="C106" s="22">
         <v>0.64600000000000002</v>
       </c>
-      <c r="D106" s="19" t="s">
+      <c r="D106" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9397,10 +9553,10 @@
       <c r="B107" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C107" s="24">
+      <c r="C107" s="22">
         <v>0.55100000000000005</v>
       </c>
-      <c r="D107" s="19" t="s">
+      <c r="D107" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9408,10 +9564,10 @@
       <c r="B108" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="C108" s="24">
+      <c r="C108" s="22">
         <v>0.37</v>
       </c>
-      <c r="D108" s="19" t="s">
+      <c r="D108" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9419,10 +9575,10 @@
       <c r="B109" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C109" s="24">
+      <c r="C109" s="22">
         <v>0.52300000000000002</v>
       </c>
-      <c r="D109" s="19" t="s">
+      <c r="D109" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9430,10 +9586,10 @@
       <c r="B110" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="C110" s="24">
+      <c r="C110" s="22">
         <v>0.32400000000000001</v>
       </c>
-      <c r="D110" s="19" t="s">
+      <c r="D110" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9441,10 +9597,10 @@
       <c r="B111" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C111" s="24">
+      <c r="C111" s="22">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D111" s="19" t="s">
+      <c r="D111" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9452,10 +9608,10 @@
       <c r="B112" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C112" s="24">
+      <c r="C112" s="22">
         <v>0.30399999999999999</v>
       </c>
-      <c r="D112" s="19" t="s">
+      <c r="D112" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9463,10 +9619,10 @@
       <c r="B113" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="C113" s="24">
+      <c r="C113" s="22">
         <v>0.35099999999999998</v>
       </c>
-      <c r="D113" s="19" t="s">
+      <c r="D113" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9474,10 +9630,10 @@
       <c r="B114" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="C114" s="24">
+      <c r="C114" s="22">
         <v>0.47099999999999997</v>
       </c>
-      <c r="D114" s="19" t="s">
+      <c r="D114" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9485,10 +9641,10 @@
       <c r="B115" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C115" s="24">
+      <c r="C115" s="22">
         <v>0.57099999999999995</v>
       </c>
-      <c r="D115" s="19" t="s">
+      <c r="D115" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9496,10 +9652,10 @@
       <c r="B116" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="C116" s="24">
+      <c r="C116" s="22">
         <v>0.59199999999999997</v>
       </c>
-      <c r="D116" s="19" t="s">
+      <c r="D116" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9507,10 +9663,10 @@
       <c r="B117" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C117" s="24">
+      <c r="C117" s="22">
         <v>0.54200000000000004</v>
       </c>
-      <c r="D117" s="19" t="s">
+      <c r="D117" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9518,10 +9674,10 @@
       <c r="B118" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C118" s="24">
+      <c r="C118" s="22">
         <v>0.71599999999999997</v>
       </c>
-      <c r="D118" s="19" t="s">
+      <c r="D118" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9529,10 +9685,10 @@
       <c r="B119" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C119" s="24">
+      <c r="C119" s="22">
         <v>0.64700000000000002</v>
       </c>
-      <c r="D119" s="19" t="s">
+      <c r="D119" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9540,10 +9696,10 @@
       <c r="B120" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C120" s="24">
+      <c r="C120" s="22">
         <v>0.45</v>
       </c>
-      <c r="D120" s="19" t="s">
+      <c r="D120" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9551,10 +9707,10 @@
       <c r="B121" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="C121" s="24">
+      <c r="C121" s="22">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D121" s="19" t="s">
+      <c r="D121" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9562,10 +9718,10 @@
       <c r="B122" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C122" s="24">
+      <c r="C122" s="22">
         <v>0.34</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9573,10 +9729,10 @@
       <c r="B123" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C123" s="24">
+      <c r="C123" s="22">
         <v>0.63100000000000001</v>
       </c>
-      <c r="D123" s="19" t="s">
+      <c r="D123" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9584,10 +9740,10 @@
       <c r="B124" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C124" s="24">
+      <c r="C124" s="22">
         <v>0.34899999999999998</v>
       </c>
-      <c r="D124" s="19" t="s">
+      <c r="D124" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9595,10 +9751,10 @@
       <c r="B125" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C125" s="24">
+      <c r="C125" s="22">
         <v>0.68799999999999994</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D125" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9606,10 +9762,10 @@
       <c r="B126" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C126" s="24">
+      <c r="C126" s="22">
         <v>0.51100000000000001</v>
       </c>
-      <c r="D126" s="19" t="s">
+      <c r="D126" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9617,10 +9773,10 @@
       <c r="B127" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C127" s="24">
+      <c r="C127" s="22">
         <v>0.69199999999999995</v>
       </c>
-      <c r="D127" s="19" t="s">
+      <c r="D127" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9628,10 +9784,10 @@
       <c r="B128" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C128" s="24">
+      <c r="C128" s="22">
         <v>0.70899999999999996</v>
       </c>
-      <c r="D128" s="19" t="s">
+      <c r="D128" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9639,10 +9795,10 @@
       <c r="B129" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="C129" s="24">
+      <c r="C129" s="22">
         <v>0.46500000000000002</v>
       </c>
-      <c r="D129" s="19" t="s">
+      <c r="D129" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9650,10 +9806,10 @@
       <c r="B130" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="C130" s="24">
+      <c r="C130" s="22">
         <v>0.69499999999999995</v>
       </c>
-      <c r="D130" s="19" t="s">
+      <c r="D130" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9661,10 +9817,10 @@
       <c r="B131" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="C131" s="24">
+      <c r="C131" s="22">
         <v>0.48799999999999999</v>
       </c>
-      <c r="D131" s="19" t="s">
+      <c r="D131" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9672,10 +9828,10 @@
       <c r="B132" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="C132" s="24">
+      <c r="C132" s="22">
         <v>0.44900000000000001</v>
       </c>
-      <c r="D132" s="19" t="s">
+      <c r="D132" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9683,10 +9839,10 @@
       <c r="B133" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C133" s="24">
+      <c r="C133" s="22">
         <v>0.45</v>
       </c>
-      <c r="D133" s="19" t="s">
+      <c r="D133" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9694,10 +9850,10 @@
       <c r="B134" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C134" s="24">
+      <c r="C134" s="22">
         <v>0.67600000000000005</v>
       </c>
-      <c r="D134" s="19" t="s">
+      <c r="D134" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9705,10 +9861,10 @@
       <c r="B135" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="C135" s="24">
+      <c r="C135" s="22">
         <v>0.70599999999999996</v>
       </c>
-      <c r="D135" s="19" t="s">
+      <c r="D135" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9716,10 +9872,10 @@
       <c r="B136" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="C136" s="24">
+      <c r="C136" s="22">
         <v>0.41699999999999998</v>
       </c>
-      <c r="D136" s="19" t="s">
+      <c r="D136" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9727,10 +9883,10 @@
       <c r="B137" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C137" s="24">
+      <c r="C137" s="22">
         <v>0.42099999999999999</v>
       </c>
-      <c r="D137" s="19" t="s">
+      <c r="D137" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9738,10 +9894,10 @@
       <c r="B138" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="C138" s="24">
+      <c r="C138" s="22">
         <v>0.57599999999999996</v>
       </c>
-      <c r="D138" s="19" t="s">
+      <c r="D138" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9749,10 +9905,10 @@
       <c r="B139" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C139" s="24">
+      <c r="C139" s="22">
         <v>0.5</v>
       </c>
-      <c r="D139" s="19" t="s">
+      <c r="D139" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9760,10 +9916,10 @@
       <c r="B140" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C140" s="24">
+      <c r="C140" s="22">
         <v>0.49099999999999999</v>
       </c>
-      <c r="D140" s="19" t="s">
+      <c r="D140" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9771,10 +9927,10 @@
       <c r="B141" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C141" s="24">
+      <c r="C141" s="22">
         <v>0.6</v>
       </c>
-      <c r="D141" s="19" t="s">
+      <c r="D141" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9782,10 +9938,10 @@
       <c r="B142" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C142" s="24">
+      <c r="C142" s="22">
         <v>0.58099999999999996</v>
       </c>
-      <c r="D142" s="19" t="s">
+      <c r="D142" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9793,10 +9949,10 @@
       <c r="B143" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="C143" s="24">
+      <c r="C143" s="22">
         <v>0.33800000000000002</v>
       </c>
-      <c r="D143" s="19" t="s">
+      <c r="D143" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9804,10 +9960,10 @@
       <c r="B144" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C144" s="24">
+      <c r="C144" s="22">
         <v>0.61399999999999999</v>
       </c>
-      <c r="D144" s="19" t="s">
+      <c r="D144" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9815,10 +9971,10 @@
       <c r="B145" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C145" s="24">
+      <c r="C145" s="22">
         <v>0.58199999999999996</v>
       </c>
-      <c r="D145" s="19" t="s">
+      <c r="D145" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9826,10 +9982,10 @@
       <c r="B146" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="C146" s="24">
+      <c r="C146" s="22">
         <v>0.67</v>
       </c>
-      <c r="D146" s="19" t="s">
+      <c r="D146" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9837,10 +9993,10 @@
       <c r="B147" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="C147" s="24">
+      <c r="C147" s="22">
         <v>0.59299999999999997</v>
       </c>
-      <c r="D147" s="19" t="s">
+      <c r="D147" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9848,10 +10004,10 @@
       <c r="B148" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C148" s="24">
+      <c r="C148" s="22">
         <v>0.436</v>
       </c>
-      <c r="D148" s="19" t="s">
+      <c r="D148" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9859,10 +10015,10 @@
       <c r="B149" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C149" s="24">
+      <c r="C149" s="22">
         <v>0.22500000000000001</v>
       </c>
-      <c r="D149" s="19" t="s">
+      <c r="D149" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9870,10 +10026,10 @@
       <c r="B150" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C150" s="24">
+      <c r="C150" s="22">
         <v>0.67900000000000005</v>
       </c>
-      <c r="D150" s="19" t="s">
+      <c r="D150" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9881,10 +10037,10 @@
       <c r="B151" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C151" s="24">
+      <c r="C151" s="22">
         <v>0.372</v>
       </c>
-      <c r="D151" s="19" t="s">
+      <c r="D151" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9892,10 +10048,10 @@
       <c r="B152" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C152" s="24">
+      <c r="C152" s="22">
         <v>0.28199999999999997</v>
       </c>
-      <c r="D152" s="19" t="s">
+      <c r="D152" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9903,10 +10059,10 @@
       <c r="B153" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="C153" s="24">
+      <c r="C153" s="22">
         <v>0.63200000000000001</v>
       </c>
-      <c r="D153" s="19" t="s">
+      <c r="D153" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9914,10 +10070,10 @@
       <c r="B154" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="C154" s="24">
+      <c r="C154" s="22">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D154" s="19" t="s">
+      <c r="D154" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9925,10 +10081,10 @@
       <c r="B155" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="C155" s="24">
+      <c r="C155" s="22">
         <v>0.39800000000000002</v>
       </c>
-      <c r="D155" s="19" t="s">
+      <c r="D155" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9936,10 +10092,10 @@
       <c r="B156" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="C156" s="24">
+      <c r="C156" s="22">
         <v>0.49299999999999999</v>
       </c>
-      <c r="D156" s="19" t="s">
+      <c r="D156" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9947,10 +10103,10 @@
       <c r="B157" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C157" s="24">
+      <c r="C157" s="22">
         <v>0.65700000000000003</v>
       </c>
-      <c r="D157" s="19" t="s">
+      <c r="D157" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9958,10 +10114,10 @@
       <c r="B158" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="C158" s="24">
+      <c r="C158" s="22">
         <v>0.42499999999999999</v>
       </c>
-      <c r="D158" s="19" t="s">
+      <c r="D158" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9969,10 +10125,10 @@
       <c r="B159" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="C159" s="24">
+      <c r="C159" s="22">
         <v>0.82899999999999996</v>
       </c>
-      <c r="D159" s="19" t="s">
+      <c r="D159" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9980,10 +10136,10 @@
       <c r="B160" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="C160" s="24">
+      <c r="C160" s="22">
         <v>0.35099999999999998</v>
       </c>
-      <c r="D160" s="19" t="s">
+      <c r="D160" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -9991,10 +10147,10 @@
       <c r="B161" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C161" s="24">
+      <c r="C161" s="22">
         <v>0.64600000000000002</v>
       </c>
-      <c r="D161" s="19" t="s">
+      <c r="D161" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -10002,10 +10158,10 @@
       <c r="B162" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="C162" s="24">
+      <c r="C162" s="22">
         <v>0.754</v>
       </c>
-      <c r="D162" s="19" t="s">
+      <c r="D162" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -10013,10 +10169,10 @@
       <c r="B163" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="C163" s="24">
+      <c r="C163" s="22">
         <v>0.44400000000000001</v>
       </c>
-      <c r="D163" s="19" t="s">
+      <c r="D163" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -10024,10 +10180,10 @@
       <c r="B164" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="C164" s="24">
+      <c r="C164" s="22">
         <v>0.58399999999999996</v>
       </c>
-      <c r="D164" s="19" t="s">
+      <c r="D164" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -10035,10 +10191,10 @@
       <c r="B165" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="C165" s="24">
+      <c r="C165" s="22">
         <v>0.61099999999999999</v>
       </c>
-      <c r="D165" s="19" t="s">
+      <c r="D165" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -10046,10 +10202,10 @@
       <c r="B166" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C166" s="24">
+      <c r="C166" s="22">
         <v>0.64400000000000002</v>
       </c>
-      <c r="D166" s="19" t="s">
+      <c r="D166" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -10057,10 +10213,10 @@
       <c r="B167" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="C167" s="24">
+      <c r="C167" s="22">
         <v>0.47199999999999998</v>
       </c>
-      <c r="D167" s="19" t="s">
+      <c r="D167" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -10068,10 +10224,10 @@
       <c r="B168" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="C168" s="24">
+      <c r="C168" s="22">
         <v>0.65600000000000003</v>
       </c>
-      <c r="D168" s="19" t="s">
+      <c r="D168" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -10079,10 +10235,10 @@
       <c r="B169" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="C169" s="24">
+      <c r="C169" s="22">
         <v>0.43099999999999999</v>
       </c>
-      <c r="D169" s="19" t="s">
+      <c r="D169" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -10090,10 +10246,10 @@
       <c r="B170" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="C170" s="24">
+      <c r="C170" s="22">
         <v>0.67200000000000004</v>
       </c>
-      <c r="D170" s="19" t="s">
+      <c r="D170" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -10101,10 +10257,10 @@
       <c r="B171" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C171" s="24">
+      <c r="C171" s="22">
         <v>0.63700000000000001</v>
       </c>
-      <c r="D171" s="19" t="s">
+      <c r="D171" s="17" t="s">
         <v>217</v>
       </c>
     </row>
@@ -10112,21 +10268,21 @@
       <c r="B172" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C172" s="24">
+      <c r="C172" s="22">
         <v>0.40200000000000002</v>
       </c>
-      <c r="D172" s="19" t="s">
+      <c r="D172" s="17" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B173" s="28" t="s">
+      <c r="B173" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="C173" s="29">
+      <c r="C173" s="27">
         <v>0.53700000000000003</v>
       </c>
-      <c r="D173" s="30" t="s">
+      <c r="D173" s="28" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10134,10 +10290,10 @@
       <c r="B174" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C174" s="24">
+      <c r="C174" s="22">
         <v>0.45700000000000002</v>
       </c>
-      <c r="D174" s="20" t="s">
+      <c r="D174" s="18" t="s">
         <v>215</v>
       </c>
       <c r="E174" t="s">
@@ -10148,10 +10304,10 @@
       <c r="B175" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="C175" s="24">
+      <c r="C175" s="22">
         <v>0.53900000000000003</v>
       </c>
-      <c r="D175" s="20" t="s">
+      <c r="D175" s="18" t="s">
         <v>215</v>
       </c>
       <c r="E175" t="s">
@@ -10165,10 +10321,10 @@
       <c r="B176" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C176" s="24">
+      <c r="C176" s="22">
         <v>0.27900000000000003</v>
       </c>
-      <c r="D176" s="20" t="s">
+      <c r="D176" s="18" t="s">
         <v>215</v>
       </c>
       <c r="E176" t="s">
@@ -10176,13 +10332,13 @@
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B177" s="35" t="s">
+      <c r="B177" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="C177" s="36">
+      <c r="C177" s="34">
         <v>0.495</v>
       </c>
-      <c r="D177" s="37" t="s">
+      <c r="D177" s="35" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10190,10 +10346,10 @@
       <c r="B178" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C178" s="24">
+      <c r="C178" s="22">
         <v>0.40300000000000002</v>
       </c>
-      <c r="D178" s="20" t="s">
+      <c r="D178" s="18" t="s">
         <v>215</v>
       </c>
       <c r="E178" t="s">
@@ -10207,13 +10363,13 @@
       <c r="B179" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C179" s="24">
+      <c r="C179" s="22">
         <v>0.43</v>
       </c>
-      <c r="D179" s="20" t="s">
+      <c r="D179" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E179" s="20"/>
+      <c r="E179" s="18"/>
       <c r="F179" t="s">
         <v>600</v>
       </c>
@@ -10222,13 +10378,13 @@
       <c r="B180" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C180" s="24">
+      <c r="C180" s="22">
         <v>0.45900000000000002</v>
       </c>
-      <c r="D180" s="20" t="s">
+      <c r="D180" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E180" s="20" t="s">
+      <c r="E180" s="18" t="s">
         <v>601</v>
       </c>
       <c r="F180" t="s">
@@ -10239,13 +10395,13 @@
       <c r="B181" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C181" s="24">
+      <c r="C181" s="22">
         <v>0.48099999999999998</v>
       </c>
-      <c r="D181" s="20" t="s">
+      <c r="D181" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E181" s="20" t="s">
+      <c r="E181" s="18" t="s">
         <v>603</v>
       </c>
     </row>
@@ -10253,10 +10409,10 @@
       <c r="B182" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C182" s="24">
+      <c r="C182" s="22">
         <v>0.45100000000000001</v>
       </c>
-      <c r="D182" s="20" t="s">
+      <c r="D182" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10264,10 +10420,10 @@
       <c r="B183" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C183" s="24">
+      <c r="C183" s="22">
         <v>0.53100000000000003</v>
       </c>
-      <c r="D183" s="20" t="s">
+      <c r="D183" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10275,10 +10431,10 @@
       <c r="B184" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C184" s="24">
+      <c r="C184" s="22">
         <v>0.48</v>
       </c>
-      <c r="D184" s="20" t="s">
+      <c r="D184" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10286,10 +10442,10 @@
       <c r="B185" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C185" s="24">
+      <c r="C185" s="22">
         <v>0.40100000000000002</v>
       </c>
-      <c r="D185" s="20" t="s">
+      <c r="D185" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10297,10 +10453,10 @@
       <c r="B186" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C186" s="24">
+      <c r="C186" s="22">
         <v>0.39200000000000002</v>
       </c>
-      <c r="D186" s="20" t="s">
+      <c r="D186" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10308,10 +10464,10 @@
       <c r="B187" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C187" s="24">
+      <c r="C187" s="22">
         <v>0.39300000000000002</v>
       </c>
-      <c r="D187" s="20" t="s">
+      <c r="D187" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10319,39 +10475,39 @@
       <c r="B188" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="C188" s="24">
+      <c r="C188" s="22">
         <v>0.443</v>
       </c>
-      <c r="D188" s="20" t="s">
+      <c r="D188" s="18" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B189" s="31" t="s">
+      <c r="B189" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="C189" s="32">
+      <c r="C189" s="30">
         <v>0.34300000000000003</v>
       </c>
-      <c r="D189" s="33" t="s">
+      <c r="D189" s="31" t="s">
         <v>215</v>
       </c>
-      <c r="E189" s="20" t="s">
+      <c r="E189" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="F189" s="34" t="s">
+      <c r="F189" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="G189" s="34"/>
+      <c r="G189" s="32"/>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B190" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C190" s="24">
+      <c r="C190" s="22">
         <v>0.63800000000000001</v>
       </c>
-      <c r="D190" s="20" t="s">
+      <c r="D190" s="18" t="s">
         <v>215</v>
       </c>
       <c r="E190" t="s">
@@ -10362,34 +10518,34 @@
       <c r="B191" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C191" s="24">
+      <c r="C191" s="22">
         <v>0.66800000000000004</v>
       </c>
-      <c r="D191" s="20" t="s">
+      <c r="D191" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E191" s="21"/>
+      <c r="E191" s="19"/>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B192" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C192" s="24">
+      <c r="C192" s="22">
         <v>0.48099999999999998</v>
       </c>
-      <c r="D192" s="20" t="s">
+      <c r="D192" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E192" s="21"/>
+      <c r="E192" s="19"/>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B193" s="28" t="s">
+      <c r="B193" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="C193" s="29">
+      <c r="C193" s="27">
         <v>0.41799999999999998</v>
       </c>
-      <c r="D193" s="30" t="s">
+      <c r="D193" s="28" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10397,10 +10553,10 @@
       <c r="B194" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C194" s="24">
+      <c r="C194" s="22">
         <v>0.38900000000000001</v>
       </c>
-      <c r="D194" s="20" t="s">
+      <c r="D194" s="18" t="s">
         <v>215</v>
       </c>
       <c r="E194" t="s">
@@ -10411,10 +10567,10 @@
       <c r="B195" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="C195" s="24">
+      <c r="C195" s="22">
         <v>0.443</v>
       </c>
-      <c r="D195" s="20" t="s">
+      <c r="D195" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10422,10 +10578,10 @@
       <c r="B196" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C196" s="24">
+      <c r="C196" s="22">
         <v>0.23499999999999999</v>
       </c>
-      <c r="D196" s="20" t="s">
+      <c r="D196" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10433,10 +10589,10 @@
       <c r="B197" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C197" s="24">
+      <c r="C197" s="22">
         <v>0.41899999999999998</v>
       </c>
-      <c r="D197" s="20" t="s">
+      <c r="D197" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10444,10 +10600,10 @@
       <c r="B198" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C198" s="24">
+      <c r="C198" s="22">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D198" s="20" t="s">
+      <c r="D198" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10455,10 +10611,10 @@
       <c r="B199" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C199" s="24">
+      <c r="C199" s="22">
         <v>0.41799999999999998</v>
       </c>
-      <c r="D199" s="20" t="s">
+      <c r="D199" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10466,10 +10622,10 @@
       <c r="B200" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C200" s="24">
+      <c r="C200" s="22">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D200" s="20" t="s">
+      <c r="D200" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10477,10 +10633,10 @@
       <c r="B201" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C201" s="24">
+      <c r="C201" s="22">
         <v>0.26800000000000002</v>
       </c>
-      <c r="D201" s="20" t="s">
+      <c r="D201" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10488,10 +10644,10 @@
       <c r="B202" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="C202" s="24">
+      <c r="C202" s="22">
         <v>0.39</v>
       </c>
-      <c r="D202" s="20" t="s">
+      <c r="D202" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10499,10 +10655,10 @@
       <c r="B203" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C203" s="24">
+      <c r="C203" s="22">
         <v>0.47499999999999998</v>
       </c>
-      <c r="D203" s="20" t="s">
+      <c r="D203" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10510,10 +10666,10 @@
       <c r="B204" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="C204" s="24">
+      <c r="C204" s="22">
         <v>0.47499999999999998</v>
       </c>
-      <c r="D204" s="20" t="s">
+      <c r="D204" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10521,10 +10677,10 @@
       <c r="B205" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C205" s="24">
+      <c r="C205" s="22">
         <v>0.622</v>
       </c>
-      <c r="D205" s="20" t="s">
+      <c r="D205" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10532,10 +10688,10 @@
       <c r="B206" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C206" s="24">
+      <c r="C206" s="22">
         <v>0.34899999999999998</v>
       </c>
-      <c r="D206" s="20" t="s">
+      <c r="D206" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10543,10 +10699,10 @@
       <c r="B207" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="C207" s="24">
+      <c r="C207" s="22">
         <v>0.58299999999999996</v>
       </c>
-      <c r="D207" s="20" t="s">
+      <c r="D207" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10554,10 +10710,10 @@
       <c r="B208" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C208" s="24">
+      <c r="C208" s="22">
         <v>0.30599999999999999</v>
       </c>
-      <c r="D208" s="20" t="s">
+      <c r="D208" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10565,10 +10721,10 @@
       <c r="B209" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="C209" s="24">
+      <c r="C209" s="22">
         <v>0.505</v>
       </c>
-      <c r="D209" s="20" t="s">
+      <c r="D209" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10576,10 +10732,10 @@
       <c r="B210" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C210" s="24">
+      <c r="C210" s="22">
         <v>0.35299999999999998</v>
       </c>
-      <c r="D210" s="20" t="s">
+      <c r="D210" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10587,10 +10743,10 @@
       <c r="B211" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C211" s="24">
+      <c r="C211" s="22">
         <v>0.36599999999999999</v>
       </c>
-      <c r="D211" s="20" t="s">
+      <c r="D211" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10598,10 +10754,10 @@
       <c r="B212" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C212" s="24">
+      <c r="C212" s="22">
         <v>0.63400000000000001</v>
       </c>
-      <c r="D212" s="20" t="s">
+      <c r="D212" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10609,10 +10765,10 @@
       <c r="B213" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C213" s="24">
+      <c r="C213" s="22">
         <v>0.29399999999999998</v>
       </c>
-      <c r="D213" s="20" t="s">
+      <c r="D213" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10620,10 +10776,10 @@
       <c r="B214" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C214" s="24">
+      <c r="C214" s="22">
         <v>0.53</v>
       </c>
-      <c r="D214" s="20" t="s">
+      <c r="D214" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10631,10 +10787,10 @@
       <c r="B215" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="C215" s="24">
+      <c r="C215" s="22">
         <v>0.39700000000000002</v>
       </c>
-      <c r="D215" s="20" t="s">
+      <c r="D215" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10642,10 +10798,10 @@
       <c r="B216" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="C216" s="24">
+      <c r="C216" s="22">
         <v>0.51400000000000001</v>
       </c>
-      <c r="D216" s="20" t="s">
+      <c r="D216" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10653,10 +10809,10 @@
       <c r="B217" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C217" s="24">
+      <c r="C217" s="22">
         <v>0.73499999999999999</v>
       </c>
-      <c r="D217" s="20" t="s">
+      <c r="D217" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10664,10 +10820,10 @@
       <c r="B218" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="C218" s="24">
+      <c r="C218" s="22">
         <v>0.4</v>
       </c>
-      <c r="D218" s="20" t="s">
+      <c r="D218" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10675,10 +10831,10 @@
       <c r="B219" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="C219" s="24">
+      <c r="C219" s="22">
         <v>0.42399999999999999</v>
       </c>
-      <c r="D219" s="20" t="s">
+      <c r="D219" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10686,10 +10842,10 @@
       <c r="B220" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="C220" s="24">
+      <c r="C220" s="22">
         <v>0.193</v>
       </c>
-      <c r="D220" s="20" t="s">
+      <c r="D220" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10697,10 +10853,10 @@
       <c r="B221" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C221" s="24">
+      <c r="C221" s="22">
         <v>0.46600000000000003</v>
       </c>
-      <c r="D221" s="20" t="s">
+      <c r="D221" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10708,10 +10864,10 @@
       <c r="B222" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="C222" s="24">
+      <c r="C222" s="22">
         <v>0.41199999999999998</v>
       </c>
-      <c r="D222" s="20" t="s">
+      <c r="D222" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10719,10 +10875,10 @@
       <c r="B223" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C223" s="24">
+      <c r="C223" s="22">
         <v>0.33400000000000002</v>
       </c>
-      <c r="D223" s="20" t="s">
+      <c r="D223" s="18" t="s">
         <v>215</v>
       </c>
     </row>
@@ -10730,34 +10886,34 @@
       <c r="B224" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="C224" s="24">
+      <c r="C224" s="22">
         <v>0.36099999999999999</v>
       </c>
-      <c r="D224" s="20" t="s">
+      <c r="D224" s="18" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A225" s="25"/>
+      <c r="A225" s="23"/>
       <c r="B225" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="C225" s="26">
+      <c r="C225" s="24">
         <v>0.38200000000000001</v>
       </c>
-      <c r="D225" s="20" t="s">
+      <c r="D225" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="E225" s="25"/>
+      <c r="E225" s="23"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B226" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C226" s="24">
+      <c r="C226" s="22">
         <v>0.497</v>
       </c>
-      <c r="D226" s="21" t="s">
+      <c r="D226" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10765,10 +10921,10 @@
       <c r="B227" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C227" s="24">
+      <c r="C227" s="22">
         <v>0.435</v>
       </c>
-      <c r="D227" s="21" t="s">
+      <c r="D227" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10776,10 +10932,10 @@
       <c r="B228" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C228" s="24">
+      <c r="C228" s="22">
         <v>0.58499999999999996</v>
       </c>
-      <c r="D228" s="21" t="s">
+      <c r="D228" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10787,10 +10943,10 @@
       <c r="B229" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C229" s="24">
+      <c r="C229" s="22">
         <v>0.65700000000000003</v>
       </c>
-      <c r="D229" s="21" t="s">
+      <c r="D229" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10798,10 +10954,10 @@
       <c r="B230" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="C230" s="24">
+      <c r="C230" s="22">
         <v>0.71199999999999997</v>
       </c>
-      <c r="D230" s="21" t="s">
+      <c r="D230" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10809,10 +10965,10 @@
       <c r="B231" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C231" s="24">
+      <c r="C231" s="22">
         <v>0.51800000000000002</v>
       </c>
-      <c r="D231" s="21" t="s">
+      <c r="D231" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10820,10 +10976,10 @@
       <c r="B232" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C232" s="24">
+      <c r="C232" s="22">
         <v>0.55500000000000005</v>
       </c>
-      <c r="D232" s="21" t="s">
+      <c r="D232" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10831,10 +10987,10 @@
       <c r="B233" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C233" s="24">
+      <c r="C233" s="22">
         <v>0.63500000000000001</v>
       </c>
-      <c r="D233" s="21" t="s">
+      <c r="D233" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10842,10 +10998,10 @@
       <c r="B234" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C234" s="24">
+      <c r="C234" s="22">
         <v>0.65400000000000003</v>
       </c>
-      <c r="D234" s="21" t="s">
+      <c r="D234" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10853,10 +11009,10 @@
       <c r="B235" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C235" s="24">
+      <c r="C235" s="22">
         <v>0.74</v>
       </c>
-      <c r="D235" s="21" t="s">
+      <c r="D235" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10864,10 +11020,10 @@
       <c r="B236" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C236" s="24">
+      <c r="C236" s="22">
         <v>0.65</v>
       </c>
-      <c r="D236" s="21" t="s">
+      <c r="D236" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10875,10 +11031,10 @@
       <c r="B237" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C237" s="24">
+      <c r="C237" s="22">
         <v>0.53</v>
       </c>
-      <c r="D237" s="21" t="s">
+      <c r="D237" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10886,10 +11042,10 @@
       <c r="B238" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C238" s="24">
+      <c r="C238" s="22">
         <v>0.39</v>
       </c>
-      <c r="D238" s="21" t="s">
+      <c r="D238" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10897,10 +11053,10 @@
       <c r="B239" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C239" s="24">
+      <c r="C239" s="22">
         <v>0.497</v>
       </c>
-      <c r="D239" s="21" t="s">
+      <c r="D239" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10908,10 +11064,10 @@
       <c r="B240" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C240" s="24">
+      <c r="C240" s="22">
         <v>0.57099999999999995</v>
       </c>
-      <c r="D240" s="21" t="s">
+      <c r="D240" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10919,10 +11075,10 @@
       <c r="B241" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="C241" s="24">
+      <c r="C241" s="22">
         <v>0.53300000000000003</v>
       </c>
-      <c r="D241" s="21" t="s">
+      <c r="D241" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10930,10 +11086,10 @@
       <c r="B242" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C242" s="24">
+      <c r="C242" s="22">
         <v>0.49099999999999999</v>
       </c>
-      <c r="D242" s="21" t="s">
+      <c r="D242" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10941,10 +11097,10 @@
       <c r="B243" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="C243" s="24">
+      <c r="C243" s="22">
         <v>0.39500000000000002</v>
       </c>
-      <c r="D243" s="21" t="s">
+      <c r="D243" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10952,10 +11108,10 @@
       <c r="B244" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C244" s="24">
+      <c r="C244" s="22">
         <v>0.57199999999999995</v>
       </c>
-      <c r="D244" s="21" t="s">
+      <c r="D244" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10963,10 +11119,10 @@
       <c r="B245" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C245" s="24">
+      <c r="C245" s="22">
         <v>0.65200000000000002</v>
       </c>
-      <c r="D245" s="21" t="s">
+      <c r="D245" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10974,10 +11130,10 @@
       <c r="B246" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C246" s="24">
+      <c r="C246" s="22">
         <v>0.61599999999999999</v>
       </c>
-      <c r="D246" s="21" t="s">
+      <c r="D246" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10985,10 +11141,10 @@
       <c r="B247" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C247" s="24">
+      <c r="C247" s="22">
         <v>0.623</v>
       </c>
-      <c r="D247" s="21" t="s">
+      <c r="D247" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10996,10 +11152,10 @@
       <c r="B248" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C248" s="24">
+      <c r="C248" s="22">
         <v>0.39600000000000002</v>
       </c>
-      <c r="D248" s="21" t="s">
+      <c r="D248" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11007,10 +11163,10 @@
       <c r="B249" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C249" s="24">
+      <c r="C249" s="22">
         <v>0.77700000000000002</v>
       </c>
-      <c r="D249" s="21" t="s">
+      <c r="D249" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11018,10 +11174,10 @@
       <c r="B250" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C250" s="24">
+      <c r="C250" s="22">
         <v>0.51100000000000001</v>
       </c>
-      <c r="D250" s="21" t="s">
+      <c r="D250" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11029,10 +11185,10 @@
       <c r="B251" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C251" s="24">
+      <c r="C251" s="22">
         <v>0.58699999999999997</v>
       </c>
-      <c r="D251" s="21" t="s">
+      <c r="D251" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11040,10 +11196,10 @@
       <c r="B252" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="C252" s="24">
+      <c r="C252" s="22">
         <v>0.70599999999999996</v>
       </c>
-      <c r="D252" s="21" t="s">
+      <c r="D252" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11051,10 +11207,10 @@
       <c r="B253" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C253" s="24">
+      <c r="C253" s="22">
         <v>0.50600000000000001</v>
       </c>
-      <c r="D253" s="21" t="s">
+      <c r="D253" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11062,10 +11218,10 @@
       <c r="B254" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C254" s="24">
+      <c r="C254" s="22">
         <v>0.55900000000000005</v>
       </c>
-      <c r="D254" s="21" t="s">
+      <c r="D254" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11073,10 +11229,10 @@
       <c r="B255" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C255" s="24">
+      <c r="C255" s="22">
         <v>0.51800000000000002</v>
       </c>
-      <c r="D255" s="21" t="s">
+      <c r="D255" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11084,10 +11240,10 @@
       <c r="B256" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C256" s="24">
+      <c r="C256" s="22">
         <v>0.73699999999999999</v>
       </c>
-      <c r="D256" s="21" t="s">
+      <c r="D256" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11095,10 +11251,10 @@
       <c r="B257" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C257" s="24">
+      <c r="C257" s="22">
         <v>0.41599999999999998</v>
       </c>
-      <c r="D257" s="21" t="s">
+      <c r="D257" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11106,10 +11262,10 @@
       <c r="B258" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C258" s="24">
+      <c r="C258" s="22">
         <v>0.53600000000000003</v>
       </c>
-      <c r="D258" s="21" t="s">
+      <c r="D258" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11117,10 +11273,10 @@
       <c r="B259" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C259" s="24">
+      <c r="C259" s="22">
         <v>0.45900000000000002</v>
       </c>
-      <c r="D259" s="21" t="s">
+      <c r="D259" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11128,10 +11284,10 @@
       <c r="B260" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="C260" s="24">
+      <c r="C260" s="22">
         <v>0.58399999999999996</v>
       </c>
-      <c r="D260" s="21" t="s">
+      <c r="D260" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11139,10 +11295,10 @@
       <c r="B261" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C261" s="24">
+      <c r="C261" s="22">
         <v>0.66200000000000003</v>
       </c>
-      <c r="D261" s="21" t="s">
+      <c r="D261" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11150,10 +11306,10 @@
       <c r="B262" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C262" s="24">
+      <c r="C262" s="22">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D262" s="21" t="s">
+      <c r="D262" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11161,10 +11317,10 @@
       <c r="B263" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="C263" s="24">
+      <c r="C263" s="22">
         <v>0.625</v>
       </c>
-      <c r="D263" s="21" t="s">
+      <c r="D263" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11172,10 +11328,10 @@
       <c r="B264" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C264" s="24">
+      <c r="C264" s="22">
         <v>0.34799999999999998</v>
       </c>
-      <c r="D264" s="21" t="s">
+      <c r="D264" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11183,10 +11339,10 @@
       <c r="B265" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C265" s="24">
+      <c r="C265" s="22">
         <v>0.65900000000000003</v>
       </c>
-      <c r="D265" s="21" t="s">
+      <c r="D265" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11194,10 +11350,10 @@
       <c r="B266" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C266" s="24">
+      <c r="C266" s="22">
         <v>0.46700000000000003</v>
       </c>
-      <c r="D266" s="21" t="s">
+      <c r="D266" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11205,10 +11361,10 @@
       <c r="B267" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C267" s="24">
+      <c r="C267" s="22">
         <v>0.38700000000000001</v>
       </c>
-      <c r="D267" s="21" t="s">
+      <c r="D267" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11216,10 +11372,10 @@
       <c r="B268" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="C268" s="24">
+      <c r="C268" s="22">
         <v>0.61</v>
       </c>
-      <c r="D268" s="21" t="s">
+      <c r="D268" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11227,10 +11383,10 @@
       <c r="B269" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C269" s="24">
+      <c r="C269" s="22">
         <v>0.66300000000000003</v>
       </c>
-      <c r="D269" s="21" t="s">
+      <c r="D269" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11238,10 +11394,10 @@
       <c r="B270" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C270" s="24">
+      <c r="C270" s="22">
         <v>0.53800000000000003</v>
       </c>
-      <c r="D270" s="21" t="s">
+      <c r="D270" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11249,10 +11405,10 @@
       <c r="B271" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C271" s="24">
+      <c r="C271" s="22">
         <v>0.73399999999999999</v>
       </c>
-      <c r="D271" s="21" t="s">
+      <c r="D271" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11260,10 +11416,10 @@
       <c r="B272" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C272" s="24">
+      <c r="C272" s="22">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D272" s="21" t="s">
+      <c r="D272" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11271,10 +11427,10 @@
       <c r="B273" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C273" s="24">
+      <c r="C273" s="22">
         <v>0.63400000000000001</v>
       </c>
-      <c r="D273" s="21" t="s">
+      <c r="D273" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11282,10 +11438,10 @@
       <c r="B274" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C274" s="24">
+      <c r="C274" s="22">
         <v>0.74299999999999999</v>
       </c>
-      <c r="D274" s="21" t="s">
+      <c r="D274" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11293,10 +11449,10 @@
       <c r="B275" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="C275" s="24">
+      <c r="C275" s="22">
         <v>0.54400000000000004</v>
       </c>
-      <c r="D275" s="21" t="s">
+      <c r="D275" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11304,10 +11460,10 @@
       <c r="B276" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C276" s="24">
+      <c r="C276" s="22">
         <v>0.58599999999999997</v>
       </c>
-      <c r="D276" s="21" t="s">
+      <c r="D276" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11315,10 +11471,10 @@
       <c r="B277" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C277" s="24">
+      <c r="C277" s="22">
         <v>0.47199999999999998</v>
       </c>
-      <c r="D277" s="21" t="s">
+      <c r="D277" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11326,10 +11482,10 @@
       <c r="B278" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C278" s="24">
+      <c r="C278" s="22">
         <v>0.54900000000000004</v>
       </c>
-      <c r="D278" s="21" t="s">
+      <c r="D278" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11337,10 +11493,10 @@
       <c r="B279" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C279" s="24">
+      <c r="C279" s="22">
         <v>0.66400000000000003</v>
       </c>
-      <c r="D279" s="21" t="s">
+      <c r="D279" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11348,10 +11504,10 @@
       <c r="B280" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="C280" s="24">
+      <c r="C280" s="22">
         <v>0.39</v>
       </c>
-      <c r="D280" s="21" t="s">
+      <c r="D280" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11359,10 +11515,10 @@
       <c r="B281" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C281" s="24">
+      <c r="C281" s="22">
         <v>0.57799999999999996</v>
       </c>
-      <c r="D281" s="21" t="s">
+      <c r="D281" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11370,10 +11526,10 @@
       <c r="B282" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="C282" s="24">
+      <c r="C282" s="22">
         <v>0.56399999999999995</v>
       </c>
-      <c r="D282" s="21" t="s">
+      <c r="D282" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11381,10 +11537,10 @@
       <c r="B283" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C283" s="24">
+      <c r="C283" s="22">
         <v>0.77700000000000002</v>
       </c>
-      <c r="D283" s="21" t="s">
+      <c r="D283" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11392,10 +11548,10 @@
       <c r="B284" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C284" s="24">
+      <c r="C284" s="22">
         <v>0.59499999999999997</v>
       </c>
-      <c r="D284" s="21" t="s">
+      <c r="D284" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11403,10 +11559,10 @@
       <c r="B285" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="C285" s="24">
+      <c r="C285" s="22">
         <v>0.47199999999999998</v>
       </c>
-      <c r="D285" s="21" t="s">
+      <c r="D285" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11414,10 +11570,10 @@
       <c r="B286" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C286" s="24">
+      <c r="C286" s="22">
         <v>0.45500000000000002</v>
       </c>
-      <c r="D286" s="21" t="s">
+      <c r="D286" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11425,10 +11581,10 @@
       <c r="B287" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="C287" s="24">
+      <c r="C287" s="22">
         <v>0.78600000000000003</v>
       </c>
-      <c r="D287" s="21" t="s">
+      <c r="D287" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11436,10 +11592,10 @@
       <c r="B288" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C288" s="24">
+      <c r="C288" s="22">
         <v>0.59099999999999997</v>
       </c>
-      <c r="D288" s="21" t="s">
+      <c r="D288" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11447,10 +11603,10 @@
       <c r="B289" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C289" s="24">
+      <c r="C289" s="22">
         <v>0.46899999999999997</v>
       </c>
-      <c r="D289" s="21" t="s">
+      <c r="D289" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11458,10 +11614,10 @@
       <c r="B290" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="C290" s="24">
+      <c r="C290" s="22">
         <v>0.67900000000000005</v>
       </c>
-      <c r="D290" s="21" t="s">
+      <c r="D290" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11469,10 +11625,10 @@
       <c r="B291" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C291" s="24">
+      <c r="C291" s="22">
         <v>0.746</v>
       </c>
-      <c r="D291" s="21" t="s">
+      <c r="D291" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11480,10 +11636,10 @@
       <c r="B292" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C292" s="24">
+      <c r="C292" s="22">
         <v>0.57099999999999995</v>
       </c>
-      <c r="D292" s="21" t="s">
+      <c r="D292" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11491,10 +11647,10 @@
       <c r="B293" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C293" s="24">
+      <c r="C293" s="22">
         <v>0.70799999999999996</v>
       </c>
-      <c r="D293" s="21" t="s">
+      <c r="D293" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11502,10 +11658,10 @@
       <c r="B294" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="C294" s="24">
+      <c r="C294" s="22">
         <v>0.46700000000000003</v>
       </c>
-      <c r="D294" s="21" t="s">
+      <c r="D294" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11513,10 +11669,10 @@
       <c r="B295" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C295" s="24">
+      <c r="C295" s="22">
         <v>0.45100000000000001</v>
       </c>
-      <c r="D295" s="21" t="s">
+      <c r="D295" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11524,10 +11680,10 @@
       <c r="B296" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C296" s="24">
+      <c r="C296" s="22">
         <v>0.65900000000000003</v>
       </c>
-      <c r="D296" s="21" t="s">
+      <c r="D296" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11535,10 +11691,10 @@
       <c r="B297" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="C297" s="24">
+      <c r="C297" s="22">
         <v>0.83699999999999997</v>
       </c>
-      <c r="D297" s="21" t="s">
+      <c r="D297" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11546,10 +11702,10 @@
       <c r="B298" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C298" s="24">
+      <c r="C298" s="22">
         <v>0.52800000000000002</v>
       </c>
-      <c r="D298" s="21" t="s">
+      <c r="D298" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11557,10 +11713,10 @@
       <c r="B299" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C299" s="24">
+      <c r="C299" s="22">
         <v>0.69299999999999995</v>
       </c>
-      <c r="D299" s="21" t="s">
+      <c r="D299" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11568,10 +11724,10 @@
       <c r="B300" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="C300" s="24">
+      <c r="C300" s="22">
         <v>0.79600000000000004</v>
       </c>
-      <c r="D300" s="21" t="s">
+      <c r="D300" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11579,10 +11735,10 @@
       <c r="B301" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C301" s="24">
+      <c r="C301" s="22">
         <v>0.5</v>
       </c>
-      <c r="D301" s="21" t="s">
+      <c r="D301" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11590,10 +11746,10 @@
       <c r="B302" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="C302" s="24">
+      <c r="C302" s="22">
         <v>0.45500000000000002</v>
       </c>
-      <c r="D302" s="21" t="s">
+      <c r="D302" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11601,10 +11757,10 @@
       <c r="B303" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C303" s="24">
+      <c r="C303" s="22">
         <v>0.45600000000000002</v>
       </c>
-      <c r="D303" s="21" t="s">
+      <c r="D303" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11612,10 +11768,10 @@
       <c r="B304" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C304" s="24">
+      <c r="C304" s="22">
         <v>0.41199999999999998</v>
       </c>
-      <c r="D304" s="21" t="s">
+      <c r="D304" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11623,10 +11779,10 @@
       <c r="B305" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="C305" s="24">
+      <c r="C305" s="22">
         <v>0.69499999999999995</v>
       </c>
-      <c r="D305" s="21" t="s">
+      <c r="D305" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11634,10 +11790,10 @@
       <c r="B306" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="C306" s="24">
+      <c r="C306" s="22">
         <v>0.49099999999999999</v>
       </c>
-      <c r="D306" s="21" t="s">
+      <c r="D306" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11645,10 +11801,10 @@
       <c r="B307" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C307" s="24">
+      <c r="C307" s="22">
         <v>0.58599999999999997</v>
       </c>
-      <c r="D307" s="21" t="s">
+      <c r="D307" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11656,10 +11812,10 @@
       <c r="B308" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="C308" s="24">
+      <c r="C308" s="22">
         <v>0.82</v>
       </c>
-      <c r="D308" s="21" t="s">
+      <c r="D308" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11667,10 +11823,10 @@
       <c r="B309" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="C309" s="24">
+      <c r="C309" s="22">
         <v>0.77900000000000003</v>
       </c>
-      <c r="D309" s="21" t="s">
+      <c r="D309" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11678,10 +11834,10 @@
       <c r="B310" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="C310" s="24">
+      <c r="C310" s="22">
         <v>0.64300000000000002</v>
       </c>
-      <c r="D310" s="21" t="s">
+      <c r="D310" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11689,10 +11845,10 @@
       <c r="B311" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C311" s="24">
+      <c r="C311" s="22">
         <v>0.81100000000000005</v>
       </c>
-      <c r="D311" s="21" t="s">
+      <c r="D311" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11700,10 +11856,10 @@
       <c r="B312" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="C312" s="24">
+      <c r="C312" s="22">
         <v>0.84899999999999998</v>
       </c>
-      <c r="D312" s="21" t="s">
+      <c r="D312" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11711,10 +11867,10 @@
       <c r="B313" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C313" s="24">
+      <c r="C313" s="22">
         <v>0.74299999999999999</v>
       </c>
-      <c r="D313" s="21" t="s">
+      <c r="D313" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11722,10 +11878,10 @@
       <c r="B314" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="C314" s="24">
+      <c r="C314" s="22">
         <v>0.68799999999999994</v>
       </c>
-      <c r="D314" s="21" t="s">
+      <c r="D314" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11733,10 +11889,10 @@
       <c r="B315" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="C315" s="24">
+      <c r="C315" s="22">
         <v>0.54800000000000004</v>
       </c>
-      <c r="D315" s="21" t="s">
+      <c r="D315" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11744,10 +11900,10 @@
       <c r="B316" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C316" s="24">
+      <c r="C316" s="22">
         <v>0.45400000000000001</v>
       </c>
-      <c r="D316" s="21" t="s">
+      <c r="D316" s="19" t="s">
         <v>220</v>
       </c>
     </row>
@@ -11755,10 +11911,10 @@
       <c r="B317" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="C317" s="24">
+      <c r="C317" s="22">
         <v>0.68500000000000005</v>
       </c>
-      <c r="D317" s="21" t="s">
+      <c r="D317" s="19" t="s">
         <v>220</v>
       </c>
     </row>

--- a/js/leetcode/js/leetcode.xlsx
+++ b/js/leetcode/js/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/XiumingXu/Development/Kata/js/leetcode/js/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E447A77-75D5-7647-90F0-F44674BB7D58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC16D89-B08F-8842-AFCC-6ACFDA3416B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="4400" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{D9979169-2470-B940-A4AE-C3D5CB1A8763}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{D9979169-2470-B940-A4AE-C3D5CB1A8763}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1598" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="625">
   <si>
     <t>1249 Minimum Remove to Make Valid Parentheses            </t>
   </si>
@@ -1808,9 +1808,6 @@
   </si>
   <si>
     <t>做写大号的吧</t>
-  </si>
-  <si>
-    <t>洗牌算法  囧 不知道</t>
   </si>
   <si>
     <t>打乱数组-洗牌算法</t>
@@ -1945,6 +1942,39 @@
   </si>
   <si>
     <t>完全理解含义, 不同的二分法之间的转换, 跟 在rotate string里找target 有类似吗但是为什么只想右边???</t>
+  </si>
+  <si>
+    <t>最近公共祖先是唯一的 不用担心祖先的问题</t>
+  </si>
+  <si>
+    <t>基本上ok pre cur cur.next 需要考虑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partition 就这样吧 </t>
+  </si>
+  <si>
+    <t>也不是很有用的题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">容易看不懂题, 感觉需要找最终顶点的都有[) 二分法末班 </t>
+  </si>
+  <si>
+    <t>找到重复计算的部分, 也算是特殊的提了</t>
+  </si>
+  <si>
+    <t>栈可以存好几个结果, 这样可以当做一个不错的算法, dfs也行,  regular expression 也行</t>
+  </si>
+  <si>
+    <t>洗牌算法  囧 不知道 借用了链表, 个体随机 组合也是随机, 交换 或者链表都可以</t>
+  </si>
+  <si>
+    <t>解法还是挺奇怪的, 桶排也是用空间换时间也挺有意思的</t>
+  </si>
+  <si>
+    <t>一个看之前所有的, 所以不是dp 而是滑动窗口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一个和之前的状态有关, 所以是dp </t>
   </si>
 </sst>
 </file>
@@ -3837,7 +3867,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{987AADC0-C981-424B-A4BA-EB7B70A8841A}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4487,7 +4519,7 @@
   <dimension ref="A1:F317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E317"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8321,8 +8353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD386AB-BC84-7443-A7E1-450D0CF9B325}">
   <dimension ref="A1:G317"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8398,7 +8430,7 @@
         <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G5" t="s">
         <v>589</v>
@@ -8415,7 +8447,7 @@
         <v>217</v>
       </c>
       <c r="E6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -8452,7 +8484,7 @@
         <v>217</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -8466,7 +8498,7 @@
         <v>217</v>
       </c>
       <c r="E10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -8480,7 +8512,7 @@
         <v>217</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -8494,7 +8526,7 @@
         <v>217</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -8508,7 +8540,7 @@
         <v>217</v>
       </c>
       <c r="E13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="53" customHeight="1" x14ac:dyDescent="0.2">
@@ -8522,13 +8554,13 @@
         <v>217</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F14" s="39" t="s">
+        <v>611</v>
+      </c>
+      <c r="G14" s="39" t="s">
         <v>612</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -8541,6 +8573,9 @@
       <c r="D15" s="17" t="s">
         <v>217</v>
       </c>
+      <c r="E15" s="19" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
@@ -8553,7 +8588,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>309</v>
       </c>
@@ -8564,7 +8599,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>310</v>
       </c>
@@ -8574,8 +8609,11 @@
       <c r="D18" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>312</v>
       </c>
@@ -8586,7 +8624,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>314</v>
       </c>
@@ -8596,8 +8634,11 @@
       <c r="D20" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E20" s="18" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>316</v>
       </c>
@@ -8607,8 +8648,11 @@
       <c r="D21" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>318</v>
       </c>
@@ -8618,8 +8662,10 @@
       <c r="D22" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E22" s="19"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
       <c r="B23" s="6" t="s">
         <v>321</v>
       </c>
@@ -8629,8 +8675,12 @@
       <c r="D23" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
       <c r="B24" s="6" t="s">
         <v>323</v>
       </c>
@@ -8641,7 +8691,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="19"/>
       <c r="B25" s="6" t="s">
         <v>326</v>
       </c>
@@ -8651,8 +8702,12 @@
       <c r="D25" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
       <c r="B26" s="6" t="s">
         <v>327</v>
       </c>
@@ -8663,7 +8718,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
       <c r="B27" s="6" t="s">
         <v>328</v>
       </c>
@@ -8674,7 +8730,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="19"/>
       <c r="B28" s="6" t="s">
         <v>329</v>
       </c>
@@ -8684,8 +8741,12 @@
       <c r="D28" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
       <c r="B29" s="6" t="s">
         <v>332</v>
       </c>
@@ -8695,14 +8756,15 @@
       <c r="D29" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="G29" s="25" t="s">
         <v>590</v>
       </c>
-      <c r="G29" s="25" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="19"/>
       <c r="B30" s="6" t="s">
         <v>333</v>
       </c>
@@ -8712,8 +8774,10 @@
       <c r="D30" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
       <c r="B31" s="6" t="s">
         <v>334</v>
       </c>
@@ -8723,8 +8787,12 @@
       <c r="D31" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E31" s="18" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="19"/>
       <c r="B32" s="6" t="s">
         <v>277</v>
       </c>
@@ -8734,8 +8802,12 @@
       <c r="D32" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
       <c r="B33" s="6" t="s">
         <v>278</v>
       </c>
@@ -8745,8 +8817,11 @@
       <c r="D33" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>280</v>
       </c>
@@ -8757,7 +8832,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>337</v>
       </c>
@@ -8768,7 +8843,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
         <v>339</v>
       </c>
@@ -8779,7 +8854,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>340</v>
       </c>
@@ -8790,7 +8865,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
         <v>341</v>
       </c>
@@ -8801,7 +8876,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>343</v>
       </c>
@@ -8812,7 +8887,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>346</v>
       </c>
@@ -8823,7 +8898,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>347</v>
       </c>
@@ -8834,7 +8909,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>353</v>
       </c>
@@ -8845,7 +8920,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
         <v>355</v>
       </c>
@@ -8856,7 +8931,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
         <v>357</v>
       </c>
@@ -8867,7 +8942,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>358</v>
       </c>
@@ -8878,7 +8953,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
         <v>359</v>
       </c>
@@ -8889,7 +8964,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
         <v>279</v>
       </c>
@@ -8900,7 +8975,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>361</v>
       </c>
@@ -8978,7 +9053,7 @@
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="26" t="s">
         <v>370</v>
       </c>
       <c r="C55" s="22">
@@ -10297,7 +10372,7 @@
         <v>215</v>
       </c>
       <c r="E174" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.2">
@@ -10311,10 +10386,10 @@
         <v>215</v>
       </c>
       <c r="E175" t="s">
+        <v>595</v>
+      </c>
+      <c r="F175" t="s">
         <v>596</v>
-      </c>
-      <c r="F175" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.2">
@@ -10328,7 +10403,7 @@
         <v>215</v>
       </c>
       <c r="E176" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.2">
@@ -10353,7 +10428,7 @@
         <v>215</v>
       </c>
       <c r="E178" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F178" t="s">
         <v>257</v>
@@ -10371,7 +10446,7 @@
       </c>
       <c r="E179" s="18"/>
       <c r="F179" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.2">
@@ -10385,10 +10460,10 @@
         <v>215</v>
       </c>
       <c r="E180" s="18" t="s">
+        <v>600</v>
+      </c>
+      <c r="F180" t="s">
         <v>601</v>
-      </c>
-      <c r="F180" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.2">
@@ -10402,7 +10477,7 @@
         <v>215</v>
       </c>
       <c r="E181" s="18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.2">
@@ -10493,10 +10568,10 @@
         <v>215</v>
       </c>
       <c r="E189" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="F189" s="32" t="s">
         <v>592</v>
-      </c>
-      <c r="F189" s="32" t="s">
-        <v>593</v>
       </c>
       <c r="G189" s="32"/>
     </row>
@@ -10511,7 +10586,7 @@
         <v>215</v>
       </c>
       <c r="E190" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.2">
@@ -10560,7 +10635,7 @@
         <v>215</v>
       </c>
       <c r="E194" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.2">
@@ -10795,7 +10870,7 @@
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B216" s="6" t="s">
+      <c r="B216" s="26" t="s">
         <v>526</v>
       </c>
       <c r="C216" s="22">

--- a/js/leetcode/js/leetcode.xlsx
+++ b/js/leetcode/js/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/XiumingXu/Development/Kata/js/leetcode/js/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC16D89-B08F-8842-AFCC-6ACFDA3416B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC1555D-BBD7-3246-B63F-0929921BC7CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{D9979169-2470-B940-A4AE-C3D5CB1A8763}"/>
+    <workbookView xWindow="12900" yWindow="29300" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{D9979169-2470-B940-A4AE-C3D5CB1A8763}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="631">
   <si>
     <t>1249 Minimum Remove to Make Valid Parentheses            </t>
   </si>
@@ -1975,6 +1975,24 @@
   </si>
   <si>
     <t xml:space="preserve">一个和之前的状态有关, 所以是dp </t>
+  </si>
+  <si>
+    <t>边界很烦</t>
+  </si>
+  <si>
+    <t>不知道 感觉挺简单</t>
+  </si>
+  <si>
+    <t>可以试一下 也是模拟</t>
+  </si>
+  <si>
+    <t>不太想把</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/meeting-rooms-ii/solution/mei-ju-shuang-zhi-zhen-xian-xing-sao-miao-you-xian/</t>
+  </si>
+  <si>
+    <t>神奇, 就从最后一个开始往前头</t>
   </si>
 </sst>
 </file>
@@ -2281,7 +2299,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2345,6 +2363,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="4" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -8353,8 +8372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD386AB-BC84-7443-A7E1-450D0CF9B325}">
   <dimension ref="A1:G317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="141" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8588,7 +8607,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
         <v>309</v>
       </c>
@@ -8599,7 +8618,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>310</v>
       </c>
@@ -8613,7 +8632,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
         <v>312</v>
       </c>
@@ -8624,7 +8643,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
         <v>314</v>
       </c>
@@ -8638,7 +8657,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
         <v>316</v>
       </c>
@@ -8652,7 +8671,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
         <v>318</v>
       </c>
@@ -8664,8 +8683,7 @@
       </c>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="19"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
         <v>321</v>
       </c>
@@ -8679,8 +8697,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
         <v>323</v>
       </c>
@@ -8691,8 +8708,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
         <v>326</v>
       </c>
@@ -8706,8 +8722,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
         <v>327</v>
       </c>
@@ -8718,8 +8733,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
         <v>328</v>
       </c>
@@ -8730,8 +8744,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
         <v>329</v>
       </c>
@@ -8745,8 +8758,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+    <row r="29" spans="2:7" ht="21" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>332</v>
       </c>
@@ -8763,8 +8775,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
         <v>333</v>
       </c>
@@ -8776,8 +8787,7 @@
       </c>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
         <v>334</v>
       </c>
@@ -8791,8 +8801,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="19"/>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
         <v>277</v>
       </c>
@@ -8806,8 +8815,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
         <v>278</v>
       </c>
@@ -8821,7 +8829,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
         <v>280</v>
       </c>
@@ -8831,8 +8839,11 @@
       <c r="D34" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
         <v>337</v>
       </c>
@@ -8842,19 +8853,25 @@
       <c r="D35" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="6" t="s">
+      <c r="E35" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="30">
         <v>0.68700000000000006</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="41" t="s">
+        <v>217</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>340</v>
       </c>
@@ -8864,8 +8881,11 @@
       <c r="D37" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E37" s="17" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
         <v>341</v>
       </c>
@@ -8875,8 +8895,9 @@
       <c r="D38" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E38" s="19"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
         <v>343</v>
       </c>
@@ -8886,8 +8907,9 @@
       <c r="D39" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E39" s="19"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40" s="6" t="s">
         <v>346</v>
       </c>
@@ -8897,8 +8919,9 @@
       <c r="D40" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E40" s="19"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41" s="6" t="s">
         <v>347</v>
       </c>
@@ -8908,8 +8931,11 @@
       <c r="D41" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E41" s="19" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42" s="6" t="s">
         <v>353</v>
       </c>
@@ -8919,8 +8945,9 @@
       <c r="D42" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43" s="6" t="s">
         <v>355</v>
       </c>
@@ -8930,8 +8957,9 @@
       <c r="D43" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E43" s="19"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44" s="6" t="s">
         <v>357</v>
       </c>
@@ -8941,8 +8969,12 @@
       <c r="D44" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E44" s="17"/>
+      <c r="F44" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45" s="6" t="s">
         <v>358</v>
       </c>
@@ -8952,8 +8984,9 @@
       <c r="D45" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E45" s="19"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46" s="6" t="s">
         <v>359</v>
       </c>
@@ -8963,8 +8996,9 @@
       <c r="D46" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E46" s="19"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47" s="6" t="s">
         <v>279</v>
       </c>
@@ -8975,7 +9009,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48" s="6" t="s">
         <v>361</v>
       </c>
@@ -8986,7 +9020,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
         <v>363</v>
       </c>
@@ -8997,7 +9031,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
         <v>364</v>
       </c>
@@ -9008,7 +9042,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
         <v>365</v>
       </c>
@@ -9019,7 +9053,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
         <v>366</v>
       </c>
@@ -9030,7 +9064,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
         <v>368</v>
       </c>
@@ -9041,7 +9075,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
         <v>369</v>
       </c>
@@ -9052,7 +9086,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B55" s="26" t="s">
         <v>370</v>
       </c>
@@ -9062,8 +9096,9 @@
       <c r="D55" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="19"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
         <v>373</v>
       </c>
@@ -9074,7 +9109,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
         <v>374</v>
       </c>
@@ -9085,7 +9120,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>378</v>
       </c>
@@ -9096,7 +9131,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
         <v>380</v>
       </c>
@@ -9107,7 +9142,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="19"/>
       <c r="B60" s="6" t="s">
         <v>383</v>
       </c>
@@ -9118,7 +9154,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="19"/>
       <c r="B61" s="6" t="s">
         <v>281</v>
       </c>
@@ -9129,7 +9166,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="19"/>
       <c r="B62" s="6" t="s">
         <v>284</v>
       </c>
@@ -9140,7 +9178,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="19"/>
       <c r="B63" s="6" t="s">
         <v>384</v>
       </c>
@@ -9151,7 +9190,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="19"/>
       <c r="B64" s="6" t="s">
         <v>386</v>
       </c>
@@ -9162,7 +9202,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="19"/>
       <c r="B65" s="6" t="s">
         <v>387</v>
       </c>
@@ -9173,7 +9214,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="19"/>
       <c r="B66" s="6" t="s">
         <v>388</v>
       </c>
@@ -9184,7 +9226,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="19"/>
       <c r="B67" s="6" t="s">
         <v>390</v>
       </c>
@@ -9195,7 +9238,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="19"/>
       <c r="B68" s="6" t="s">
         <v>391</v>
       </c>
@@ -9206,7 +9250,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="19"/>
       <c r="B69" s="6" t="s">
         <v>392</v>
       </c>
@@ -9217,7 +9262,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="19"/>
       <c r="B70" s="6" t="s">
         <v>394</v>
       </c>
@@ -9228,7 +9274,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="19"/>
       <c r="B71" s="6" t="s">
         <v>395</v>
       </c>
@@ -9239,7 +9286,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="19"/>
       <c r="B72" s="6" t="s">
         <v>399</v>
       </c>
@@ -9250,7 +9298,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="19"/>
       <c r="B73" s="6" t="s">
         <v>405</v>
       </c>
@@ -9261,7 +9310,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B74" s="6" t="s">
         <v>406</v>
       </c>
@@ -9272,7 +9321,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
         <v>408</v>
       </c>
@@ -9283,7 +9332,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
         <v>409</v>
       </c>
@@ -9294,7 +9343,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
         <v>412</v>
       </c>
@@ -9305,7 +9354,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
         <v>414</v>
       </c>
@@ -9316,7 +9365,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
         <v>419</v>
       </c>
@@ -9327,7 +9376,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
         <v>420</v>
       </c>
@@ -9768,7 +9817,7 @@
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="26" t="s">
         <v>486</v>
       </c>
       <c r="C120" s="22">
@@ -12314,6 +12363,7 @@
     <hyperlink ref="B317" r:id="rId314" display="https://leetcode-cn.com/problems/minimum-value-to-get-positive-step-by-step-sum/" xr:uid="{E39B8147-833D-8B42-8651-E5DC582A4FC9}"/>
     <hyperlink ref="B172" r:id="rId315" display="https://leetcode-cn.com/problems/jump-game-vi/" xr:uid="{C6E2F15F-98EC-0B42-9C9C-4E5A58BBE088}"/>
     <hyperlink ref="B225" r:id="rId316" display="https://leetcode-cn.com/problems/russian-doll-envelopes/" xr:uid="{5972AEF0-CB0E-474C-BC0A-B372374EA3D5}"/>
+    <hyperlink ref="F44" r:id="rId317" xr:uid="{D78CB03A-E39F-304B-8DE5-D044BF5965AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/js/leetcode/js/leetcode.xlsx
+++ b/js/leetcode/js/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/XiumingXu/Development/Kata/js/leetcode/js/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC1555D-BBD7-3246-B63F-0929921BC7CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752293FD-A4B5-E942-9422-D2D206CA857F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="29300" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{D9979169-2470-B940-A4AE-C3D5CB1A8763}"/>
+    <workbookView xWindow="12920" yWindow="29300" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{D9979169-2470-B940-A4AE-C3D5CB1A8763}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="641">
   <si>
     <t>1249 Minimum Remove to Make Valid Parentheses            </t>
   </si>
@@ -1994,12 +1994,62 @@
   <si>
     <t>神奇, 就从最后一个开始往前头</t>
   </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Max 取当前的start 线性</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if 条件中的l 被减之后不会 进入其他的分支</t>
+  </si>
+  <si>
+    <t>二维数组的intialize</t>
+  </si>
+  <si>
+    <r>
+      <t>还是老实的写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> / | 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>而不是右移把</t>
+    </r>
+  </si>
+  <si>
+    <t>有的时候 提出来的反而不咋地</t>
+  </si>
+  <si>
+    <t>滑动窗口类似于一种控制变量法, 保持一个恒定值 presum + 二分  / 滑动窗口, java有 arrays.binarySearch</t>
+  </si>
+  <si>
+    <t>双指针还是要看看</t>
+  </si>
+  <si>
+    <t>后续遍历, 跟之前的前序不太一样</t>
+  </si>
+  <si>
+    <t>是不是环 就用connect 有一个公共parent 就是环</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2176,6 +2226,11 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2299,7 +2354,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2350,12 +2405,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="5" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2364,6 +2413,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -3020,7 +3076,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="40" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3031,7 +3087,7 @@
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="37"/>
+      <c r="C29" s="41"/>
     </row>
     <row r="30" spans="1:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -8372,8 +8428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD386AB-BC84-7443-A7E1-450D0CF9B325}">
   <dimension ref="A1:G317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" zoomScale="141" workbookViewId="0">
-      <selection activeCell="A193" sqref="A193"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8490,7 +8546,7 @@
       <c r="D8" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="38"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
@@ -8572,13 +8628,13 @@
       <c r="D14" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="38" t="s">
         <v>613</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="37" t="s">
         <v>611</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="37" t="s">
         <v>612</v>
       </c>
     </row>
@@ -8864,7 +8920,7 @@
       <c r="C36" s="30">
         <v>0.68700000000000006</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="39" t="s">
         <v>217</v>
       </c>
       <c r="E36" s="32" t="s">
@@ -9153,6 +9209,9 @@
       <c r="D60" s="17" t="s">
         <v>217</v>
       </c>
+      <c r="E60" s="19" t="s">
+        <v>632</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
@@ -9165,6 +9224,9 @@
       <c r="D61" s="17" t="s">
         <v>217</v>
       </c>
+      <c r="E61" s="19" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
@@ -9177,6 +9239,9 @@
       <c r="D62" s="17" t="s">
         <v>217</v>
       </c>
+      <c r="E62" s="19" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
@@ -9189,6 +9254,9 @@
       <c r="D63" s="17" t="s">
         <v>217</v>
       </c>
+      <c r="E63" s="19" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
@@ -9201,8 +9269,11 @@
       <c r="D64" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" s="19" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="6" t="s">
         <v>387</v>
@@ -9213,8 +9284,9 @@
       <c r="D65" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="19"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="6" t="s">
         <v>388</v>
@@ -9225,8 +9297,9 @@
       <c r="D66" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="19"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="6" t="s">
         <v>390</v>
@@ -9237,8 +9310,14 @@
       <c r="D67" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="17" t="s">
+        <v>637</v>
+      </c>
+      <c r="F67" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="6" t="s">
         <v>391</v>
@@ -9249,8 +9328,9 @@
       <c r="D68" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="19"/>
+    </row>
+    <row r="69" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="6" t="s">
         <v>392</v>
@@ -9261,8 +9341,12 @@
       <c r="D69" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" s="17"/>
+      <c r="F69" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="6" t="s">
         <v>394</v>
@@ -9273,8 +9357,9 @@
       <c r="D70" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" s="42"/>
+    </row>
+    <row r="71" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="6" t="s">
         <v>395</v>
@@ -9285,8 +9370,9 @@
       <c r="D71" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" s="36"/>
+    </row>
+    <row r="72" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="6" t="s">
         <v>399</v>
@@ -9297,8 +9383,9 @@
       <c r="D72" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" s="36"/>
+    </row>
+    <row r="73" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="6" t="s">
         <v>405</v>
@@ -9309,8 +9396,11 @@
       <c r="D73" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" s="42" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B74" s="6" t="s">
         <v>406</v>
       </c>
@@ -9321,7 +9411,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
         <v>408</v>
       </c>
@@ -9332,7 +9422,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
         <v>409</v>
       </c>
@@ -9343,7 +9433,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
         <v>412</v>
       </c>
@@ -9354,7 +9444,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
         <v>414</v>
       </c>
@@ -9365,7 +9455,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
         <v>419</v>
       </c>
@@ -9376,7 +9466,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
         <v>420</v>
       </c>
@@ -10455,7 +10545,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B177" s="33" t="s">
         <v>319</v>
       </c>
@@ -10466,7 +10556,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B178" s="6" t="s">
         <v>322</v>
       </c>
@@ -10483,7 +10573,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B179" s="6" t="s">
         <v>330</v>
       </c>
@@ -10498,7 +10588,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B180" s="6" t="s">
         <v>335</v>
       </c>
@@ -10515,7 +10605,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B181" s="6" t="s">
         <v>273</v>
       </c>
@@ -10529,7 +10619,8 @@
         <v>602</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="19"/>
       <c r="B182" s="6" t="s">
         <v>342</v>
       </c>
@@ -10540,7 +10631,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="19"/>
       <c r="B183" s="6" t="s">
         <v>344</v>
       </c>
@@ -10551,7 +10643,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="19"/>
       <c r="B184" s="6" t="s">
         <v>345</v>
       </c>
@@ -10562,7 +10655,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="19"/>
       <c r="B185" s="6" t="s">
         <v>350</v>
       </c>
@@ -10573,7 +10667,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="19"/>
       <c r="B186" s="6" t="s">
         <v>351</v>
       </c>
@@ -10584,7 +10679,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="19"/>
       <c r="B187" s="6" t="s">
         <v>352</v>
       </c>
@@ -10595,7 +10691,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B188" s="6" t="s">
         <v>356</v>
       </c>
@@ -10606,7 +10702,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B189" s="29" t="s">
         <v>362</v>
       </c>
@@ -10624,7 +10720,7 @@
       </c>
       <c r="G189" s="32"/>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B190" s="6" t="s">
         <v>290</v>
       </c>
@@ -10638,7 +10734,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B191" s="6" t="s">
         <v>385</v>
       </c>
@@ -10650,7 +10746,7 @@
       </c>
       <c r="E191" s="19"/>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B192" s="6" t="s">
         <v>389</v>
       </c>
@@ -10662,7 +10758,10 @@
       </c>
       <c r="E192" s="19"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>631</v>
+      </c>
       <c r="B193" s="26" t="s">
         <v>396</v>
       </c>
@@ -10673,7 +10772,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B194" s="6" t="s">
         <v>403</v>
       </c>
@@ -10687,7 +10786,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B195" s="6" t="s">
         <v>404</v>
       </c>
@@ -10698,7 +10797,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B196" s="6" t="s">
         <v>413</v>
       </c>
@@ -10709,7 +10808,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B197" s="6" t="s">
         <v>421</v>
       </c>
@@ -10720,7 +10819,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B198" s="6" t="s">
         <v>432</v>
       </c>
@@ -10731,7 +10830,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B199" s="6" t="s">
         <v>436</v>
       </c>
@@ -10742,7 +10841,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B200" s="6" t="s">
         <v>437</v>
       </c>
@@ -10753,7 +10852,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B201" s="6" t="s">
         <v>438</v>
       </c>
@@ -10764,7 +10863,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B202" s="6" t="s">
         <v>441</v>
       </c>
@@ -10775,7 +10874,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B203" s="6" t="s">
         <v>446</v>
       </c>
@@ -10786,7 +10885,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B204" s="6" t="s">
         <v>455</v>
       </c>
@@ -10797,7 +10896,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B205" s="6" t="s">
         <v>468</v>
       </c>
@@ -10808,7 +10907,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B206" s="6" t="s">
         <v>470</v>
       </c>
@@ -10819,7 +10918,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B207" s="6" t="s">
         <v>483</v>
       </c>
@@ -10830,7 +10929,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B208" s="6" t="s">
         <v>492</v>
       </c>

--- a/js/leetcode/js/leetcode.xlsx
+++ b/js/leetcode/js/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/XiumingXu/Development/Kata/js/leetcode/js/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752293FD-A4B5-E942-9422-D2D206CA857F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8605B30-F5C8-4C4E-8049-22725E6D9D4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12920" yWindow="29300" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{D9979169-2470-B940-A4AE-C3D5CB1A8763}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="653">
   <si>
     <t>1249 Minimum Remove to Make Valid Parentheses            </t>
   </si>
@@ -2043,6 +2043,42 @@
   </si>
   <si>
     <t>是不是环 就用connect 有一个公共parent 就是环</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 讨厌 好像简单 又没整明白</t>
+  </si>
+  <si>
+    <t>也</t>
+  </si>
+  <si>
+    <t>双指针的想法 + hash</t>
+  </si>
+  <si>
+    <t>注意下负数先判断符号, 在判断数字</t>
+  </si>
+  <si>
+    <t>挺好玩的题 ,注意decode</t>
+  </si>
+  <si>
+    <t>非递归有点绕</t>
+  </si>
+  <si>
+    <t>思路就是模拟 和平方数数学模拟 没意思</t>
+  </si>
+  <si>
+    <t>欧拉回路 不是拓扑.... 可以看一下</t>
+  </si>
+  <si>
+    <t>递归 或者reducer 的写法, 真的 iterator是一种之后的思想吧</t>
+  </si>
+  <si>
+    <t>单调栈 练一下, 双倍长的想法可以</t>
+  </si>
+  <si>
+    <t>挺好玩的 可以看一下抽象的过程</t>
+  </si>
+  <si>
+    <t>大概吧, 需要视频一下</t>
   </si>
 </sst>
 </file>
@@ -2413,13 +2449,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -3076,7 +3112,7 @@
         <v>40</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="41" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3087,7 +3123,7 @@
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="41"/>
+      <c r="C29" s="42"/>
     </row>
     <row r="30" spans="1:5" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -8428,8 +8464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD386AB-BC84-7443-A7E1-450D0CF9B325}">
   <dimension ref="A1:G317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9076,7 +9112,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
         <v>363</v>
       </c>
@@ -9087,7 +9123,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="6" t="s">
         <v>364</v>
       </c>
@@ -9098,7 +9134,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
         <v>365</v>
       </c>
@@ -9109,7 +9145,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
         <v>366</v>
       </c>
@@ -9120,7 +9156,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
         <v>368</v>
       </c>
@@ -9131,7 +9167,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
         <v>369</v>
       </c>
@@ -9142,7 +9178,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="26" t="s">
         <v>370</v>
       </c>
@@ -9154,7 +9190,7 @@
       </c>
       <c r="E55" s="19"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="6" t="s">
         <v>373</v>
       </c>
@@ -9165,7 +9201,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="6" t="s">
         <v>374</v>
       </c>
@@ -9176,7 +9212,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B58" s="6" t="s">
         <v>378</v>
       </c>
@@ -9187,7 +9223,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="6" t="s">
         <v>380</v>
       </c>
@@ -9198,8 +9234,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
         <v>383</v>
       </c>
@@ -9213,8 +9248,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="19"/>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B61" s="6" t="s">
         <v>281</v>
       </c>
@@ -9228,8 +9262,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="19"/>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B62" s="6" t="s">
         <v>284</v>
       </c>
@@ -9243,8 +9276,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B63" s="6" t="s">
         <v>384</v>
       </c>
@@ -9258,8 +9290,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="6" t="s">
         <v>386</v>
       </c>
@@ -9273,8 +9304,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
         <v>387</v>
       </c>
@@ -9286,8 +9316,7 @@
       </c>
       <c r="E65" s="19"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
         <v>388</v>
       </c>
@@ -9299,8 +9328,7 @@
       </c>
       <c r="E66" s="19"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="6" t="s">
         <v>390</v>
       </c>
@@ -9317,8 +9345,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="6" t="s">
         <v>391</v>
       </c>
@@ -9330,8 +9357,7 @@
       </c>
       <c r="E68" s="19"/>
     </row>
-    <row r="69" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
+    <row r="69" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
         <v>392</v>
       </c>
@@ -9346,8 +9372,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
+    <row r="70" spans="2:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>394</v>
       </c>
@@ -9357,10 +9382,9 @@
       <c r="D70" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E70" s="42"/>
-    </row>
-    <row r="71" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
+      <c r="E70" s="40"/>
+    </row>
+    <row r="71" spans="2:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
         <v>395</v>
       </c>
@@ -9372,8 +9396,7 @@
       </c>
       <c r="E71" s="36"/>
     </row>
-    <row r="72" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
+    <row r="72" spans="2:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>399</v>
       </c>
@@ -9385,8 +9408,7 @@
       </c>
       <c r="E72" s="36"/>
     </row>
-    <row r="73" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
+    <row r="73" spans="2:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>405</v>
       </c>
@@ -9396,11 +9418,11 @@
       <c r="D73" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E73" s="42" t="s">
+      <c r="E73" s="40" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B74" s="6" t="s">
         <v>406</v>
       </c>
@@ -9410,8 +9432,11 @@
       <c r="D74" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E74" s="18" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="6" t="s">
         <v>408</v>
       </c>
@@ -9421,8 +9446,11 @@
       <c r="D75" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E75" s="17" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="6" t="s">
         <v>409</v>
       </c>
@@ -9432,8 +9460,9 @@
       <c r="D76" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E76" s="19"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
         <v>412</v>
       </c>
@@ -9443,8 +9472,11 @@
       <c r="D77" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="6" t="s">
         <v>414</v>
       </c>
@@ -9454,8 +9486,11 @@
       <c r="D78" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E78" s="19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="6" t="s">
         <v>419</v>
       </c>
@@ -9465,8 +9500,11 @@
       <c r="D79" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E79" s="17" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="6" t="s">
         <v>420</v>
       </c>
@@ -9476,8 +9514,11 @@
       <c r="D80" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="17" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B81" s="6" t="s">
         <v>422</v>
       </c>
@@ -9487,8 +9528,12 @@
       <c r="D81" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="19"/>
       <c r="B82" s="6" t="s">
         <v>423</v>
       </c>
@@ -9498,8 +9543,11 @@
       <c r="D82" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="18" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B83" s="6" t="s">
         <v>424</v>
       </c>
@@ -9509,8 +9557,12 @@
       <c r="D83" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="19"/>
       <c r="B84" s="6" t="s">
         <v>426</v>
       </c>
@@ -9520,8 +9572,12 @@
       <c r="D84" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="19"/>
       <c r="B85" s="6" t="s">
         <v>427</v>
       </c>
@@ -9532,7 +9588,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="19"/>
       <c r="B86" s="6" t="s">
         <v>428</v>
       </c>
@@ -9542,8 +9599,12 @@
       <c r="D86" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="19"/>
       <c r="B87" s="6" t="s">
         <v>429</v>
       </c>
@@ -9553,8 +9614,12 @@
       <c r="D87" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E87" s="18" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="19"/>
       <c r="B88" s="6" t="s">
         <v>430</v>
       </c>
@@ -9565,7 +9630,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="19"/>
       <c r="B89" s="6" t="s">
         <v>431</v>
       </c>
@@ -9576,7 +9642,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="19"/>
       <c r="B90" s="6" t="s">
         <v>433</v>
       </c>
@@ -9587,7 +9654,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="19"/>
       <c r="B91" s="6" t="s">
         <v>435</v>
       </c>
@@ -9598,7 +9666,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="19"/>
       <c r="B92" s="6" t="s">
         <v>439</v>
       </c>
@@ -9609,7 +9678,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="19"/>
       <c r="B93" s="6" t="s">
         <v>442</v>
       </c>
@@ -9620,7 +9690,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="19"/>
       <c r="B94" s="6" t="s">
         <v>445</v>
       </c>
@@ -9631,7 +9702,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="19"/>
       <c r="B95" s="6" t="s">
         <v>447</v>
       </c>
@@ -9642,7 +9714,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B96" s="6" t="s">
         <v>448</v>
       </c>

--- a/js/leetcode/js/leetcode.xlsx
+++ b/js/leetcode/js/leetcode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/XiumingXu/Development/Kata/js/leetcode/js/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8605B30-F5C8-4C4E-8049-22725E6D9D4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B302BB1-A98E-DB46-AF87-E90949898D77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12920" yWindow="29300" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{D9979169-2470-B940-A4AE-C3D5CB1A8763}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="658">
   <si>
     <t>1249 Minimum Remove to Make Valid Parentheses            </t>
   </si>
@@ -2072,13 +2072,28 @@
     <t>递归 或者reducer 的写法, 真的 iterator是一种之后的思想吧</t>
   </si>
   <si>
-    <t>单调栈 练一下, 双倍长的想法可以</t>
-  </si>
-  <si>
     <t>挺好玩的 可以看一下抽象的过程</t>
   </si>
   <si>
-    <t>大概吧, 需要视频一下</t>
+    <t>while 就有放到循环上面了 然后</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大概吧, 需要视频一下, 回溯 </t>
+  </si>
+  <si>
+    <t>好难懂的题</t>
+  </si>
+  <si>
+    <t>单调栈</t>
+  </si>
+  <si>
+    <t>?? 又大 有小 不多于,,,</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>看一下 循环还是怎样??  反转链表 并没有用dummy head</t>
   </si>
 </sst>
 </file>
@@ -8464,8 +8479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD386AB-BC84-7443-A7E1-450D0CF9B325}">
   <dimension ref="A1:G317"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="139" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9562,7 +9577,6 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="19"/>
       <c r="B84" s="6" t="s">
         <v>426</v>
       </c>
@@ -9572,8 +9586,8 @@
       <c r="D84" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E84" t="s">
-        <v>650</v>
+      <c r="E84" s="19" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -9599,8 +9613,8 @@
       <c r="D86" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="E86" t="s">
-        <v>651</v>
+      <c r="E86" s="17" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -9629,9 +9643,11 @@
       <c r="D88" s="17" t="s">
         <v>217</v>
       </c>
+      <c r="E88" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="19"/>
       <c r="B89" s="6" t="s">
         <v>431</v>
       </c>
@@ -9641,9 +9657,9 @@
       <c r="D89" s="17" t="s">
         <v>217</v>
       </c>
+      <c r="E89" s="19"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="19"/>
       <c r="B90" s="6" t="s">
         <v>433</v>
       </c>
@@ -9653,9 +9669,11 @@
       <c r="D90" s="17" t="s">
         <v>217</v>
       </c>
+      <c r="E90" s="19" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="19"/>
       <c r="B91" s="6" t="s">
         <v>435</v>
       </c>
@@ -9665,9 +9683,11 @@
       <c r="D91" s="17" t="s">
         <v>217</v>
       </c>
+      <c r="E91" s="19" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="19"/>
       <c r="B92" s="6" t="s">
         <v>439</v>
       </c>
@@ -9677,9 +9697,9 @@
       <c r="D92" s="17" t="s">
         <v>217</v>
       </c>
+      <c r="E92" s="19"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="19"/>
       <c r="B93" s="6" t="s">
         <v>442</v>
       </c>
@@ -9689,9 +9709,11 @@
       <c r="D93" s="17" t="s">
         <v>217</v>
       </c>
+      <c r="E93" s="17" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="19"/>
       <c r="B94" s="6" t="s">
         <v>445</v>
       </c>
@@ -9701,9 +9723,9 @@
       <c r="D94" s="17" t="s">
         <v>217</v>
       </c>
+      <c r="E94" s="19"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="19"/>
       <c r="B95" s="6" t="s">
         <v>447</v>
       </c>
@@ -9712,6 +9734,9 @@
       </c>
       <c r="D95" s="17" t="s">
         <v>217</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -9724,8 +9749,10 @@
       <c r="D96" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E96" s="19"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="19"/>
       <c r="B97" s="6" t="s">
         <v>451</v>
       </c>
@@ -9736,7 +9763,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="19"/>
       <c r="B98" s="6" t="s">
         <v>452</v>
       </c>
@@ -9747,7 +9775,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="19"/>
       <c r="B99" s="6" t="s">
         <v>454</v>
       </c>
@@ -9758,7 +9787,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="19"/>
       <c r="B100" s="6" t="s">
         <v>456</v>
       </c>
@@ -9769,7 +9799,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="19"/>
       <c r="B101" s="6" t="s">
         <v>457</v>
       </c>
@@ -9780,7 +9811,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="19"/>
       <c r="B102" s="6" t="s">
         <v>458</v>
       </c>
@@ -9791,7 +9823,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="19"/>
       <c r="B103" s="6" t="s">
         <v>460</v>
       </c>
@@ -9802,7 +9835,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="19"/>
       <c r="B104" s="6" t="s">
         <v>462</v>
       </c>
@@ -9813,7 +9847,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="19"/>
       <c r="B105" s="6" t="s">
         <v>463</v>
       </c>
@@ -9824,7 +9859,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="19"/>
       <c r="B106" s="6" t="s">
         <v>464</v>
       </c>
@@ -9835,7 +9871,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="19"/>
       <c r="B107" s="6" t="s">
         <v>465</v>
       </c>
@@ -9846,7 +9883,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="19"/>
       <c r="B108" s="6" t="s">
         <v>466</v>
       </c>
@@ -9857,7 +9895,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="19"/>
       <c r="B109" s="6" t="s">
         <v>467</v>
       </c>
@@ -9868,7 +9907,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B110" s="6" t="s">
         <v>469</v>
       </c>
@@ -9879,7 +9918,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B111" s="6" t="s">
         <v>471</v>
       </c>
@@ -9890,7 +9929,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B112" s="6" t="s">
         <v>472</v>
       </c>
@@ -11012,7 +11051,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B209" s="6" t="s">
         <v>501</v>
       </c>
@@ -11023,7 +11062,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B210" s="6" t="s">
         <v>504</v>
       </c>
@@ -11034,7 +11073,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B211" s="6" t="s">
         <v>508</v>
       </c>
@@ -11045,7 +11084,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B212" s="6" t="s">
         <v>513</v>
       </c>
@@ -11056,7 +11095,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B213" s="6" t="s">
         <v>514</v>
       </c>
@@ -11067,7 +11106,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B214" s="6" t="s">
         <v>515</v>
       </c>
@@ -11078,7 +11117,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B215" s="6" t="s">
         <v>516</v>
       </c>
@@ -11089,7 +11128,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B216" s="26" t="s">
         <v>526</v>
       </c>
@@ -11100,7 +11139,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B217" s="6" t="s">
         <v>533</v>
       </c>
@@ -11111,7 +11150,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B218" s="6" t="s">
         <v>535</v>
       </c>
@@ -11122,7 +11161,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B219" s="6" t="s">
         <v>549</v>
       </c>
@@ -11133,7 +11172,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B220" s="6" t="s">
         <v>553</v>
       </c>
@@ -11144,7 +11183,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="221" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B221" s="6" t="s">
         <v>556</v>
       </c>
@@ -11155,7 +11194,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="222" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="19"/>
       <c r="B222" s="6" t="s">
         <v>571</v>
       </c>
@@ -11166,7 +11206,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="223" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B223" s="6" t="s">
         <v>578</v>
       </c>
@@ -11177,7 +11217,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="224" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B224" s="6" t="s">
         <v>579</v>
       </c>

--- a/js/leetcode/js/leetcode.xlsx
+++ b/js/leetcode/js/leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/XiumingXu/Development/Kata/js/leetcode/js/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B302BB1-A98E-DB46-AF87-E90949898D77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30A9E2A-0D76-284F-8639-D9C7EC059492}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="29300" windowWidth="33600" windowHeight="20500" activeTab="4" xr2:uid="{D9979169-2470-B940-A4AE-C3D5CB1A8763}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33280" windowHeight="20500" activeTab="4" xr2:uid="{D9979169-2470-B940-A4AE-C3D5CB1A8763}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="664">
   <si>
     <t>1249 Minimum Remove to Make Valid Parentheses            </t>
   </si>
@@ -2094,6 +2094,24 @@
   </si>
   <si>
     <t>看一下 循环还是怎样??  反转链表 并没有用dummy head</t>
+  </si>
+  <si>
+    <t>差值法 不是以 a为基点</t>
+  </si>
+  <si>
+    <t>先右后左中序遍历</t>
+  </si>
+  <si>
+    <t>二分 临界值, 每次如何以以及他, 双指针好像一点</t>
+  </si>
+  <si>
+    <t>序列化 + hashmap</t>
+  </si>
+  <si>
+    <t>很繁琐的题 分四种情况讨论</t>
+  </si>
+  <si>
+    <t>感觉没什么的 注意tail和head都要上</t>
   </si>
 </sst>
 </file>
@@ -2405,7 +2423,7 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2471,6 +2489,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -8479,8 +8498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD386AB-BC84-7443-A7E1-450D0CF9B325}">
   <dimension ref="A1:G317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="139" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="150" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9751,8 +9770,7 @@
       </c>
       <c r="E96" s="19"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="19"/>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B97" s="6" t="s">
         <v>451</v>
       </c>
@@ -9763,8 +9781,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="19"/>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B98" s="6" t="s">
         <v>452</v>
       </c>
@@ -9774,9 +9791,11 @@
       <c r="D98" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="19"/>
+      <c r="E98" s="19" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B99" s="6" t="s">
         <v>454</v>
       </c>
@@ -9786,9 +9805,9 @@
       <c r="D99" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="19"/>
+      <c r="E99" s="19"/>
+    </row>
+    <row r="100" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
         <v>456</v>
       </c>
@@ -9798,8 +9817,9 @@
       <c r="D100" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" s="19"/>
+    </row>
+    <row r="101" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="6" t="s">
         <v>457</v>
@@ -9810,8 +9830,9 @@
       <c r="D101" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" s="36"/>
+    </row>
+    <row r="102" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="6" t="s">
         <v>458</v>
@@ -9822,8 +9843,9 @@
       <c r="D102" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" s="36"/>
+    </row>
+    <row r="103" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="6" t="s">
         <v>460</v>
@@ -9834,9 +9856,11 @@
       <c r="D103" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="19"/>
+      <c r="E103" s="36" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
         <v>462</v>
       </c>
@@ -9846,8 +9870,9 @@
       <c r="D104" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" s="40"/>
+    </row>
+    <row r="105" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="6" t="s">
         <v>463</v>
@@ -9858,9 +9883,11 @@
       <c r="D105" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="19"/>
+      <c r="E105" s="36" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
         <v>464</v>
       </c>
@@ -9870,8 +9897,11 @@
       <c r="D106" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" s="19" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
       <c r="B107" s="6" t="s">
         <v>465</v>
@@ -9882,8 +9912,11 @@
       <c r="D107" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" s="36" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="6" t="s">
         <v>466</v>
@@ -9894,8 +9927,9 @@
       <c r="D108" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" s="40"/>
+    </row>
+    <row r="109" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="6" t="s">
         <v>467</v>
@@ -9906,8 +9940,10 @@
       <c r="D109" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" s="36"/>
+    </row>
+    <row r="110" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="19"/>
       <c r="B110" s="6" t="s">
         <v>469</v>
       </c>
@@ -9917,8 +9953,12 @@
       <c r="D110" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" s="19" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="19"/>
       <c r="B111" s="6" t="s">
         <v>471</v>
       </c>
@@ -9928,8 +9968,12 @@
       <c r="D111" s="17" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111" s="43" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="19"/>
       <c r="B112" s="6" t="s">
         <v>472</v>
       </c>
@@ -9940,7 +9984,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="19"/>
       <c r="B113" s="6" t="s">
         <v>475</v>
       </c>
@@ -9951,7 +9996,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="19"/>
       <c r="B114" s="6" t="s">
         <v>477</v>
       </c>
@@ -9962,7 +10008,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="19"/>
       <c r="B115" s="6" t="s">
         <v>478</v>
       </c>
@@ -9973,7 +10020,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="19"/>
       <c r="B116" s="6" t="s">
         <v>479</v>
       </c>
@@ -9984,7 +10032,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="19"/>
       <c r="B117" s="6" t="s">
         <v>480</v>
       </c>
@@ -9995,7 +10044,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="19"/>
       <c r="B118" s="6" t="s">
         <v>484</v>
       </c>
@@ -10006,7 +10056,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="19"/>
       <c r="B119" s="6" t="s">
         <v>485</v>
       </c>
@@ -10017,7 +10068,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="19"/>
       <c r="B120" s="26" t="s">
         <v>486</v>
       </c>
@@ -10028,7 +10080,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="19"/>
       <c r="B121" s="6" t="s">
         <v>487</v>
       </c>
@@ -10039,7 +10092,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="19"/>
       <c r="B122" s="6" t="s">
         <v>488</v>
       </c>
@@ -10050,7 +10104,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="19"/>
       <c r="B123" s="6" t="s">
         <v>490</v>
       </c>
@@ -10061,7 +10116,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="19"/>
       <c r="B124" s="6" t="s">
         <v>491</v>
       </c>
@@ -10072,7 +10128,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B125" s="6" t="s">
         <v>493</v>
       </c>
@@ -10083,7 +10139,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B126" s="6" t="s">
         <v>496</v>
       </c>
@@ -10094,7 +10150,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B127" s="6" t="s">
         <v>497</v>
       </c>
@@ -10105,7 +10161,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B128" s="6" t="s">
         <v>498</v>
       </c>
@@ -10610,6 +10666,7 @@
       <c r="D173" s="28" t="s">
         <v>215</v>
       </c>
+      <c r="E173" s="19"/>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174" s="6" t="s">
